--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE06D64-985B-4DC3-BA62-6DA77AD9749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97E458-485C-4936-90A1-7B7A01E088F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="338">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -482,15 +482,9 @@
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: GENESIS CUELLO</t>
   </si>
   <si>
-    <t>CNE-E-DG-2023-068371</t>
-  </si>
-  <si>
     <t>06/12/2023</t>
   </si>
   <si>
-    <t>INVESTIGACION POR REVOCATORIAS DE INSCRIPCION EN LAS PASADAS ELECCIONES DE AUTORIDADES LOCALES DE 2023, PARA LOS PARTIDOS POLITICOS, GRUPOS SIGNIFICATIVOS Y MOVIMIENTOS, QUE INSCRIBIERON CANDIDATES INHABILITADOS. "PROFE PIOLO CREAMOS"</t>
-  </si>
-  <si>
     <t>OFICIO</t>
   </si>
   <si>
@@ -501,16 +495,6 @@
   </si>
   <si>
     <t>26/02/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025 RECIBI COMUNICACIONES EL 17 DE MARZO
-07/04/2025 RECIBI COMUNICACIONES EL 17 DE MARZO
-31/03/2025 RECIBIDAS COMUNICACIONES EL 17 DE MARZO
-14/03/2025 SIGUE EN ESPERA DE NOTIFICACIONES
-06/03/2025 EN ESPERA DE NOTIFICACION</t>
-  </si>
-  <si>
-    <t>ORIGEN: CAMILA REYES DESTINO: GENESIS CUELLO</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-001275</t>
@@ -1801,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2132,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -2160,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
@@ -2175,7 +2159,7 @@
         <v>45729</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>68</v>
@@ -2184,7 +2168,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -2193,51 +2177,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="I3" s="9">
         <v>46535</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -2246,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -2254,25 +2238,25 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -2281,7 +2265,7 @@
         <v>46992</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
@@ -2290,16 +2274,16 @@
         <v>63</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -2307,25 +2291,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
@@ -2334,7 +2318,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
@@ -2343,19 +2327,19 @@
         <v>58</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2595,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,163 +2802,110 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46232</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="5">
+        <v>46710</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>125</v>
+      <c r="L5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="I6" s="5">
-        <v>46710</v>
+        <v>46257</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>99</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="5">
-        <v>46257</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3050,16 +2981,16 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>37</v>
@@ -3068,51 +2999,51 @@
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>96</v>
@@ -3121,7 +3052,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
@@ -3130,16 +3061,16 @@
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -3148,24 +3079,24 @@
         <v>114</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>37</v>
@@ -3183,42 +3114,42 @@
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>37</v>
@@ -3227,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>29</v>
@@ -3254,30 +3185,30 @@
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>65</v>
@@ -3289,33 +3220,33 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
@@ -3324,25 +3255,25 @@
         <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
@@ -3351,51 +3282,51 @@
         <v>27</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
@@ -3404,33 +3335,33 @@
         <v>58</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>37</v>
@@ -3439,25 +3370,25 @@
         <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>29</v>
@@ -3466,7 +3397,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>37</v>
@@ -3545,25 +3476,25 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>39</v>
@@ -3572,16 +3503,16 @@
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -3590,42 +3521,42 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I3" s="9">
         <v>46315</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -3634,69 +3565,69 @@
         <v>58</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I4" s="9">
         <v>46549</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -3704,34 +3635,34 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
@@ -3740,7 +3671,7 @@
         <v>104</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>69</v>
@@ -3749,10 +3680,10 @@
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3828,52 +3759,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I2" s="5">
         <v>45466</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -3881,34 +3812,34 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>68</v>
@@ -3917,16 +3848,16 @@
         <v>81</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4005,16 +3936,16 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>37</v>
@@ -4023,16 +3954,16 @@
         <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -4041,16 +3972,16 @@
         <v>46</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4058,34 +3989,34 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -4094,16 +4025,16 @@
         <v>63</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4182,52 +4113,52 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I2" s="5">
         <v>44967</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4235,16 +4166,16 @@
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>37</v>
@@ -4253,34 +4184,34 @@
         <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I3" s="9">
         <v>46232</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4288,7 +4219,7 @@
     </row>
     <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -4297,7 +4228,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>37</v>
@@ -4315,7 +4246,7 @@
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
@@ -4324,16 +4255,16 @@
         <v>63</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4412,7 +4343,7 @@
     </row>
     <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -4421,43 +4352,43 @@
         <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="I2" s="5">
         <v>46795</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,28 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97E458-485C-4936-90A1-7B7A01E088F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305903E9-D798-496F-B7C6-206F4F37EAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
-    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId2"/>
-    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId3"/>
-    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId4"/>
-    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId5"/>
-    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId6"/>
-    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId7"/>
-    <sheet name="MONICA PARDO" sheetId="8" r:id="rId8"/>
-    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId9"/>
-    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId10"/>
+    <sheet name="HSA" sheetId="11" r:id="rId1"/>
+    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId2"/>
+    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId3"/>
+    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId4"/>
+    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId5"/>
+    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId6"/>
+    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId7"/>
+    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId8"/>
+    <sheet name="MONICA PARDO" sheetId="8" r:id="rId9"/>
+    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId10"/>
+    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="338">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1118,14 +1122,6 @@
     <t>19/11/2024</t>
   </si>
   <si>
-    <t>07/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
-31/03/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
-18/03/2025 SIGUE PENDIENTE PARA ARCHIVAR
-27/02/2025 - VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
-21/02/2025 VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
-VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE</t>
-  </si>
-  <si>
     <t>MONICA PARDO</t>
   </si>
   <si>
@@ -1140,12 +1136,6 @@
   </si>
   <si>
     <t>05/02/2025</t>
-  </si>
-  <si>
-    <t>07/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
-31/03/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
-18/03/2025 PENDIENTE PROYECTAR DE TERMINACIÓN (YA SE RECIBIERON LOS ALEGATOS)
-27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
   </si>
   <si>
     <t>CNE-E-DG-2022-023717</t>
@@ -1158,12 +1148,6 @@
 13/02/2025 SE RADÍCÓ PONENCIA QUE SANCIONA
 29/08/2024: AUTO 111 DEL 16/08/2024 COMUNICACIÓN.
 13/03/2024 RESOLUCION POR LA CUAL SE DA APERTURA DE INVESTIGACION Y FORMULA CARGOS.</t>
-  </si>
-  <si>
-    <t>07/04/2025 EN TRÁMITE DE RECURSOS
-31/03/2025 EN TRÁMITE DE RECURSOS
-18/03/2025 PENDIENTE DE RECURSOS
-27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-002144</t>
@@ -1328,6 +1312,29 @@
   <si>
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: STEPHANI GUERRERO</t>
   </si>
+  <si>
+    <t>29/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+07/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+31/03/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+18/03/2025 SIGUE PENDIENTE PARA ARCHIVAR
+27/02/2025 - VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+21/02/2025 VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>29/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+07/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+31/03/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+18/03/2025 PENDIENTE PROYECTAR DE TERMINACIÓN (YA SE RECIBIERON LOS ALEGATOS)
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>29/04/2025 EN TRÁMITE DE RECURSOS
+07/04/2025 EN TRÁMITE DE RECURSOS
+31/03/2025 EN TRÁMITE DE RECURSOS
+18/03/2025 PENDIENTE DE RECURSOS
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
 </sst>
 </file>
 
@@ -1336,7 +1343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,8 +1376,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1395,8 +1413,26 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1443,12 +1479,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1479,6 +1569,61 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1782,6 +1927,2419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452D95B-1DE6-40C4-9154-905701C3EE59}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:T37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O62" sqref="O62"/>
+      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="243.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="213.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="60" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45638</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46733</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44861</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45957</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45706</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45775</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45775</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45684</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45688</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>45720</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="14">
+        <v>46816</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="14">
+        <v>45762</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O6" s="14">
+        <v>45721</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45086</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="9">
+        <v>46164</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45700</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45776</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45070</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9">
+        <v>46166</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O8" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45775</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="5">
+        <v>45705</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O10" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45100</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="9">
+        <v>46172</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="9">
+        <v>45708</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O11" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45684</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="9">
+        <v>46710</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="9">
+        <v>45722</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O12" s="6">
+        <v>45685</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45161</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46257</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5">
+        <v>45370</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N13" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O13" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44203</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="19">
+        <v>45298</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="19">
+        <v>45698</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O14" s="20">
+        <v>45666</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44627</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="19">
+        <v>45701</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="19">
+        <v>45744</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O15" s="20">
+        <v>45708</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="19">
+        <v>45266</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="19">
+        <v>46174</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="19">
+        <v>45714</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O16" s="20">
+        <v>45715</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45049</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="5">
+        <v>46145</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="5">
+        <v>45734</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O17" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45518</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="9">
+        <v>46613</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="9">
+        <v>45771</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45771</v>
+      </c>
+      <c r="O18" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45688</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="5">
+        <v>46783</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N19" s="5">
+        <v>45769</v>
+      </c>
+      <c r="O19" s="6">
+        <v>45744</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="24">
+        <v>45246</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="24">
+        <v>46342</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="24">
+        <v>45735</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="N20" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O20" s="26">
+        <v>45733</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="24">
+        <v>45769</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="24">
+        <v>45769</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N21" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O21" s="5">
+        <v>45775</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45246</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45790</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="6">
+        <v>45754</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="N22" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O22" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26">
+        <v>45264</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="I23" s="26">
+        <v>46315</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="26">
+        <v>45735</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="N23" s="9">
+        <v>45771</v>
+      </c>
+      <c r="O23" s="26">
+        <v>45691</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="28">
+        <v>45653</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="28">
+        <v>46549</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="28">
+        <v>45712</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N24" s="9">
+        <v>45775</v>
+      </c>
+      <c r="O24" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45541</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="9">
+        <v>46636</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="9">
+        <v>45705</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="N25" s="9">
+        <v>45762</v>
+      </c>
+      <c r="O25" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45466</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="6">
+        <v>45466</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="6">
+        <v>45673</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="N26" s="5">
+        <v>45755</v>
+      </c>
+      <c r="O26" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="28">
+        <v>45665</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="28">
+        <v>45700</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="N27" s="5">
+        <v>45755</v>
+      </c>
+      <c r="O27" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="28">
+        <v>45758</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="28">
+        <v>45758</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28" s="5">
+        <v>45771</v>
+      </c>
+      <c r="O28" s="6">
+        <v>45775</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45505</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" s="6">
+        <v>46395</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="6">
+        <v>45720</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="N29" s="6">
+        <v>45771</v>
+      </c>
+      <c r="O29" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="6">
+        <v>43999</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="6">
+        <v>44967</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="6">
+        <v>45615</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="N30" s="6">
+        <v>45776</v>
+      </c>
+      <c r="O30" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45266</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="5">
+        <v>46232</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45693</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N31" s="6">
+        <v>45776</v>
+      </c>
+      <c r="O31" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="6">
+        <v>45790</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="6">
+        <v>45720</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="N32" s="6">
+        <v>45776</v>
+      </c>
+      <c r="O32" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="6">
+        <v>45729</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="6">
+        <v>45748</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O33" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45440</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" s="5">
+        <v>46535</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N34" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O34" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45715</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5">
+        <v>46992</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45720</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N35" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O35" s="6">
+        <v>45715</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="9">
+        <v>46804</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="N36" s="6">
+        <v>45762</v>
+      </c>
+      <c r="O36" s="6">
+        <v>45713</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14">
+        <v>45700</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" s="14">
+        <v>46795</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="14">
+        <v>45744</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="N37" s="6">
+        <v>45754</v>
+      </c>
+      <c r="O37" s="14">
+        <v>45701</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46795</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45729</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" s="9">
+        <v>46535</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46992</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9">
+        <v>46804</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -2064,290 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45729</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46535</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46992</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46804</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -2577,11 +4852,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2913,7 +5188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -3408,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -3691,7 +5966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -3868,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -4045,12 +6320,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,25 +6423,25 @@
       <c r="L2" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>214</v>
+      <c r="M2" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45776</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -4175,7 +6450,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>37</v>
@@ -4193,33 +6468,33 @@
         <v>46232</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>214</v>
+        <v>291</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45776</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -4228,7 +6503,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>37</v>
@@ -4246,7 +6521,7 @@
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
@@ -4254,143 +6529,19 @@
       <c r="L4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>214</v>
+      <c r="M4" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45776</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46795</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q2" s="4" t="s">
         <v>32</v>
       </c>
     </row>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305903E9-D798-496F-B7C6-206F4F37EAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867701D-C4EB-41DF-9124-AE3734AED765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="338">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -149,9 +149,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>CNE-E-DG-2022-022511 - VALLE DEL CAUCA</t>
-  </si>
-  <si>
     <t>27/10/2022</t>
   </si>
   <si>
@@ -168,25 +165,6 @@
   </si>
   <si>
     <t>ART. 25</t>
-  </si>
-  <si>
-    <t>01/04/2025 APROBADA RESOLUCION No 01467 EN SALA
-14/03/2025 RECURSO RADICADO EN SALA
-17/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 RESOLUCION YA NOTIFICADA, EN ESPERA PARA ARCHIVAR EL EXPEDIENTE PRINCIPAL
-07/04/2025 EN ESPERA DE NOTIFICACIONES
-27/03/2025 SE RADICO PARA SU ESTUDIO EN SALA EL DIA 1 DE ABRIL DE 2025
-06/03/2025 EN PROYECCIÓN DE LOS 2 RECURSOS ALLEGADOS EN CONTRA DE LA RESOLUCION No 06024 DEL 13 DE NOVIEMBRE 
-27/02/2025 EN PROCESO DE REALIZACIÓN DE RECURSO 
-21/02/2025 - ALLEGARON 2 RECURSOS (RESOLUCIÓN No. 06024 - 2024) </t>
-  </si>
-  <si>
-    <t>18/02/2025</t>
-  </si>
-  <si>
-    <t>ORIGEN: ARLET MONCADA DESTINO:ANDREA TOBAR</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-006767</t>
@@ -1334,6 +1312,21 @@
 31/03/2025 EN TRÁMITE DE RECURSOS
 18/03/2025 PENDIENTE DE RECURSOS
 27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-007754</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE RECONOCIMIENTO DE AGRUPACIÓN POLÍTICA MOVIMIENTO POLÍTICO SOCIAL COMUNAL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GUSTAVO GARCIA FIGUEROA Y JENNY LILIANA PULIDO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,6 +1616,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,10 +1929,10 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2070,327 +2066,327 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9">
-        <v>44861</v>
+        <v>45758</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="9">
-        <v>45957</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5">
-        <v>45748</v>
+        <v>45775</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" s="6">
         <v>45775</v>
       </c>
       <c r="O3" s="6">
-        <v>45706</v>
+        <v>45775</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="9">
-        <v>45758</v>
+        <v>45684</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5">
-        <v>45775</v>
+      <c r="L4" s="9">
+        <v>45735</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" s="6">
         <v>45775</v>
       </c>
       <c r="O4" s="6">
-        <v>45775</v>
+        <v>45688</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
-        <v>45684</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="14">
+        <v>45720</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>59</v>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="14">
+        <v>46816</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="14">
+        <v>45762</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="N5" s="6">
         <v>45775</v>
       </c>
-      <c r="O5" s="6">
-        <v>45688</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="O5" s="14">
+        <v>45721</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14">
-        <v>45720</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="14">
-        <v>46816</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="C6" s="9">
+        <v>45086</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="9">
+        <v>46164</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45700</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45776</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="14">
-        <v>45762</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O6" s="14">
-        <v>45721</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>32</v>
+      <c r="Q6" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="9">
-        <v>45086</v>
+        <v>45070</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I7" s="9">
-        <v>46164</v>
+        <v>46166</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="9">
-        <v>45700</v>
+        <v>45735</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N7" s="6">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="O7" s="6">
         <v>45691</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
-        <v>45070</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="9">
-        <v>46166</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="G8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="L8" s="5">
+        <v>45775</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="5">
         <v>45775</v>
       </c>
       <c r="O8" s="6">
         <v>45691</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="P8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -2399,34 +2395,34 @@
         <v>44861</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="I9" s="5">
         <v>45790</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="5">
-        <v>45775</v>
+        <v>45705</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N9" s="5">
         <v>45775</v>
@@ -2435,51 +2431,51 @@
         <v>45691</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
-        <v>44861</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45790</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="C10" s="9">
+        <v>45100</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="9">
+        <v>46172</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5">
-        <v>45705</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>105</v>
+      <c r="L10" s="9">
+        <v>45708</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="N10" s="5">
         <v>45775</v>
@@ -2487,847 +2483,847 @@
       <c r="O10" s="6">
         <v>45691</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>106</v>
+      <c r="P10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>45100</v>
+        <v>45684</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="I11" s="9">
-        <v>46172</v>
+        <v>46710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L11" s="9">
-        <v>45708</v>
+        <v>45722</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N11" s="5">
         <v>45775</v>
       </c>
       <c r="O11" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>45685</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
-        <v>45684</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="9">
-        <v>46710</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>129</v>
+      <c r="C12" s="5">
+        <v>45161</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="5">
+        <v>46257</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="9">
-        <v>45722</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>131</v>
+      <c r="L12" s="5">
+        <v>45370</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="N12" s="5">
         <v>45775</v>
       </c>
       <c r="O12" s="6">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5">
-        <v>45161</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="5">
-        <v>46257</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="C13" s="19">
+        <v>44203</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="19">
+        <v>45298</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="5">
-        <v>45370</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>140</v>
+      <c r="L13" s="19">
+        <v>45698</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="N13" s="5">
         <v>45775</v>
       </c>
-      <c r="O13" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="O13" s="20">
+        <v>45666</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="19">
-        <v>44203</v>
+        <v>44627</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I14" s="19">
-        <v>45298</v>
+        <v>45701</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="19">
-        <v>45698</v>
+        <v>45744</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="N14" s="5">
         <v>45775</v>
       </c>
       <c r="O14" s="20">
-        <v>45666</v>
+        <v>45708</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="19">
-        <v>44627</v>
+        <v>45266</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="19">
-        <v>45701</v>
+        <v>46174</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="19">
-        <v>45744</v>
+        <v>45714</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N15" s="5">
         <v>45775</v>
       </c>
       <c r="O15" s="20">
-        <v>45708</v>
+        <v>45715</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="19">
-        <v>45266</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="19">
-        <v>46174</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="19">
-        <v>45714</v>
-      </c>
-      <c r="M16" s="15" t="s">
+      <c r="C16" s="5">
+        <v>45049</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>163</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="5">
+        <v>46145</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="5">
+        <v>45734</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="N16" s="5">
         <v>45775</v>
       </c>
-      <c r="O16" s="20">
-        <v>45715</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="O16" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
-        <v>45049</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" s="5">
-        <v>46145</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="5">
-        <v>45734</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="C17" s="9">
+        <v>45518</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="F17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="9">
+        <v>46613</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="9">
+        <v>45771</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="N17" s="5">
-        <v>45775</v>
+        <v>45771</v>
       </c>
       <c r="O17" s="6">
         <v>45691</v>
       </c>
-      <c r="P17" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9">
-        <v>45518</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="9">
-        <v>46613</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="C18" s="5">
+        <v>45688</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="E18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="5">
+        <v>46783</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="9">
-        <v>45771</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>182</v>
+      <c r="L18" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="N18" s="5">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="O18" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>45744</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="24">
+        <v>45246</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="24">
+        <v>46342</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="24">
+        <v>45735</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="N19" s="5">
+        <v>45775</v>
+      </c>
+      <c r="O19" s="26">
+        <v>45733</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q19" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="5">
-        <v>46783</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="5">
-        <v>45748</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N19" s="5">
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="24">
         <v>45769</v>
       </c>
-      <c r="O19" s="6">
-        <v>45744</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24">
-        <v>45246</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="24">
-        <v>46342</v>
+        <v>201</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="24">
-        <v>45735</v>
+        <v>45769</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N20" s="5">
         <v>45775</v>
       </c>
-      <c r="O20" s="26">
-        <v>45733</v>
+      <c r="O20" s="5">
+        <v>45775</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="24">
-        <v>45769</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45246</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="E21" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="23" t="s">
+      <c r="F21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="H21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="6">
+        <v>45790</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="24">
-        <v>45769</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>208</v>
+      <c r="L21" s="6">
+        <v>45754</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="N21" s="5">
         <v>45775</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="26">
+        <v>45264</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="26">
+        <v>46315</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="26">
+        <v>45735</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="9">
+        <v>45771</v>
+      </c>
+      <c r="O22" s="26">
+        <v>45691</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45653</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="28">
+        <v>46549</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="28">
+        <v>45712</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="9">
         <v>45775</v>
       </c>
-      <c r="P21" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="O23" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6">
-        <v>45246</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="6">
-        <v>45790</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="C24" s="9">
+        <v>45541</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="9">
+        <v>46636</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="6">
-        <v>45754</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="N22" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O22" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="26">
-        <v>45264</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="I23" s="26">
-        <v>46315</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="26">
-        <v>45735</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="N23" s="9">
-        <v>45771</v>
-      </c>
-      <c r="O23" s="26">
-        <v>45691</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="28">
-        <v>45653</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="28">
-        <v>46549</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="28">
-        <v>45712</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>235</v>
+      <c r="L24" s="9">
+        <v>45705</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="N24" s="9">
-        <v>45775</v>
+        <v>45762</v>
       </c>
       <c r="O24" s="6">
         <v>45691</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="9">
-        <v>45541</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="9">
-        <v>46636</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="C25" s="6">
+        <v>45466</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="E25" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="6">
+        <v>45466</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="9">
-        <v>45705</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="N25" s="9">
-        <v>45762</v>
+      <c r="L25" s="6">
+        <v>45673</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="N25" s="5">
+        <v>45755</v>
       </c>
       <c r="O25" s="6">
         <v>45691</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="P25" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6">
-        <v>45466</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="I26" s="6">
-        <v>45466</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="6">
-        <v>45673</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="C26" s="28">
+        <v>45665</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>254</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="28">
+        <v>45700</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="N26" s="5">
         <v>45755</v>
@@ -3335,211 +3331,211 @@
       <c r="O26" s="6">
         <v>45691</v>
       </c>
-      <c r="P26" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q26" s="15" t="s">
+      <c r="P26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C27" s="28">
-        <v>45665</v>
+        <v>45758</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="L27" s="28">
-        <v>45700</v>
+        <v>45758</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="5">
-        <v>45755</v>
+        <v>45771</v>
       </c>
       <c r="O27" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>256</v>
+        <v>45775</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="28">
-        <v>45758</v>
-      </c>
-      <c r="D28" s="8" t="s">
+    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45505</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="6">
+        <v>46395</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="6">
+        <v>45720</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="6">
+        <v>45771</v>
+      </c>
+      <c r="O28" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="Q28" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43999</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="28">
-        <v>45758</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="N28" s="5">
-        <v>45771</v>
-      </c>
-      <c r="O28" s="6">
-        <v>45775</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45505</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>276</v>
-      </c>
       <c r="H29" s="15" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="I29" s="6">
-        <v>46395</v>
+        <v>44967</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L29" s="6">
-        <v>45720</v>
+        <v>45615</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="N29" s="6">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="O29" s="6">
         <v>45691</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>280</v>
+    <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="6">
-        <v>43999</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45266</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="6">
-        <v>44967</v>
-      </c>
-      <c r="J30" s="15" t="s">
+      <c r="E30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="5">
+        <v>46232</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="6">
-        <v>45615</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>335</v>
+      <c r="K30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="5">
+        <v>45693</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="N30" s="6">
         <v>45776</v>
@@ -3547,52 +3543,52 @@
       <c r="O30" s="6">
         <v>45691</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="Q30" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="5">
-        <v>45266</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="6">
+        <v>45790</v>
+      </c>
+      <c r="J31" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="5">
-        <v>46232</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="5">
-        <v>45693</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>336</v>
+      <c r="L31" s="6">
+        <v>45720</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="N31" s="6">
         <v>45776</v>
@@ -3600,16 +3596,16 @@
       <c r="O31" s="6">
         <v>45691</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q31" s="4" t="s">
+      <c r="P31" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q31" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>18</v>
@@ -3618,87 +3614,87 @@
         <v>44861</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="E32" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="H32" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I32" s="6">
-        <v>45790</v>
+        <v>45729</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L32" s="6">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="N32" s="6">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="O32" s="6">
         <v>45691</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="6">
-        <v>44861</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="6">
-        <v>45729</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="6">
-        <v>45748</v>
-      </c>
-      <c r="M33" s="15" t="s">
+      <c r="C33" s="5">
+        <v>45440</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>307</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33" s="5">
+        <v>46535</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="N33" s="6">
         <v>45775</v>
@@ -3706,175 +3702,175 @@
       <c r="O33" s="6">
         <v>45691</v>
       </c>
-      <c r="P33" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="P33" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="5">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="I34" s="5">
-        <v>46535</v>
+        <v>46992</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="5">
-        <v>45714</v>
+        <v>45720</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N34" s="6">
         <v>45775</v>
       </c>
       <c r="O34" s="6">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="5">
-        <v>45715</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="C35" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="E35" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="5">
-        <v>46992</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="I35" s="9">
+        <v>46804</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="5">
-        <v>45720</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>325</v>
+      <c r="L35" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="N35" s="6">
-        <v>45775</v>
+        <v>45762</v>
       </c>
       <c r="O35" s="6">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C36" s="9">
-        <v>45709</v>
+        <v>45776</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>336</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="9">
-        <v>46804</v>
+        <v>201</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="9">
-        <v>45735</v>
+        <v>45776</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="N36" s="6">
-        <v>45762</v>
-      </c>
-      <c r="O36" s="6">
-        <v>45713</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>308</v>
+        <v>337</v>
+      </c>
+      <c r="N36" s="9">
+        <v>45776</v>
+      </c>
+      <c r="O36" s="9">
+        <v>45714</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>18</v>
@@ -3883,25 +3879,25 @@
         <v>45700</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I37" s="14">
         <v>46795</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>26</v>
@@ -3910,7 +3906,7 @@
         <v>45744</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N37" s="6">
         <v>45754</v>
@@ -3919,7 +3915,7 @@
         <v>45701</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>32</v>
@@ -4000,52 +3996,52 @@
     </row>
     <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I2" s="5">
         <v>46795</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4058,10 +4054,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,25 +4120,25 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>24</v>
@@ -4151,16 +4147,16 @@
         <v>45729</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -4169,51 +4165,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="I3" s="9">
         <v>46535</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -4222,7 +4218,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4230,25 +4226,25 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -4257,25 +4253,25 @@
         <v>46992</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4283,25 +4279,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
@@ -4310,28 +4306,81 @@
         <v>46804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45776</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>334</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45776</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="N6" s="9">
+        <v>45776</v>
+      </c>
+      <c r="O6" s="9">
+        <v>45714</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4341,10 +4390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,163 +4507,110 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="9">
-        <v>45957</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>29</v>
+      <c r="L4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4690,52 +4686,52 @@
     </row>
     <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5">
         <v>46816</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4743,78 +4739,78 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="I3" s="9">
         <v>46164</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -4823,28 +4819,28 @@
         <v>46166</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4920,34 +4916,34 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -4956,7 +4952,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -4965,51 +4961,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="9">
         <v>45790</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -5018,113 +5014,113 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I4" s="9">
         <v>46172</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I5" s="5">
         <v>46710</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>32</v>
@@ -5132,43 +5128,43 @@
     </row>
     <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5">
         <v>46257</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>29</v>
@@ -5177,10 +5173,10 @@
         <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5256,78 +5252,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
@@ -5336,51 +5332,51 @@
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -5389,69 +5385,69 @@
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>29</v>
@@ -5460,33 +5456,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>24</v>
@@ -5495,60 +5491,60 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
@@ -5557,113 +5553,113 @@
         <v>27</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>29</v>
@@ -5672,10 +5668,10 @@
         <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5751,43 +5747,43 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -5796,113 +5792,113 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I3" s="9">
         <v>46315</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I4" s="9">
         <v>46549</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -5910,55 +5906,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6034,52 +6030,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I2" s="5">
         <v>45466</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -6087,52 +6083,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -6211,52 +6207,52 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -6264,52 +6260,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -6388,43 +6384,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I2" s="5">
         <v>44967</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N2" s="6">
         <v>45776</v>
@@ -6433,7 +6429,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -6441,43 +6437,43 @@
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I3" s="9">
         <v>46232</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N3" s="6">
         <v>45776</v>
@@ -6486,7 +6482,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -6494,43 +6490,43 @@
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="9">
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="N4" s="6">
         <v>45776</v>
@@ -6539,7 +6535,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,32 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867701D-C4EB-41DF-9124-AE3734AED765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06E951-EF17-4999-8323-679EF68678A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HSA" sheetId="11" r:id="rId1"/>
-    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId2"/>
-    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId3"/>
-    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId4"/>
-    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId5"/>
-    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId6"/>
-    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId7"/>
-    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId8"/>
-    <sheet name="MONICA PARDO" sheetId="8" r:id="rId9"/>
-    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId10"/>
-    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId11"/>
+    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
+    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId2"/>
+    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId3"/>
+    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId4"/>
+    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId5"/>
+    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId6"/>
+    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId7"/>
+    <sheet name="MONICA PARDO" sheetId="8" r:id="rId8"/>
+    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId9"/>
+    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$37</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="337">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1128,9 +1124,6 @@
 13/03/2024 RESOLUCION POR LA CUAL SE DA APERTURA DE INVESTIGACION Y FORMULA CARGOS.</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-002144</t>
-  </si>
-  <si>
     <t>TRASLADO PARA CONCERTO DE SALA PLENA - ESTATUTO DE LA OPOSICION</t>
   </si>
   <si>
@@ -1148,17 +1141,6 @@
   <si>
     <t>28/03/2025 AUTO DEL 18 DE MARZO DE 2025 CORRE TRASLADO DE ALEGATOS DENTRO DEL EXPEDIENTE 04243
 12/02/2025 - RECIBIDO</t>
-  </si>
-  <si>
-    <t>07/04/2025 EN REVISIÓN DE SHANNERY
-28/03/2025 YA FUE APROBADO Y NOTIFICADO
-17/03/2025 ESTA EN REVISIÓN DE LA DOCTORA SHANNERY
-06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
-28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
-21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
-  </si>
-  <si>
-    <t>13/02/2025</t>
   </si>
   <si>
     <t>RUBÉN MARTINEZ</t>
@@ -1328,6 +1310,18 @@
   <si>
     <t>29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
   </si>
+  <si>
+    <t>CNE-E-DG-2025-002441</t>
+  </si>
+  <si>
+    <t>30/04/2025 EN REVISION DE LA OFICINA JURIDICA
+07/04/2025 EN REVISIÓN DE SHANNERY
+28/03/2025 YA FUE APROBADO Y NOTIFICADO
+17/03/2025 ESTA EN REVISIÓN DE LA DOCTORA SHANNERY
+06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
+28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
+21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
+  </si>
 </sst>
 </file>
 
@@ -1336,7 +1330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,14 +1368,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1412,20 +1400,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFF8F9FA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1472,66 +1448,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1563,9 +1485,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1575,48 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1923,2022 +1800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452D95B-1DE6-40C4-9154-905701C3EE59}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="48.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="113.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="243.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="213.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="60" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="12.5703125" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45638</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46733</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5">
-        <v>45748</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O2" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9">
-        <v>45758</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45775</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45775</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9">
-        <v>45684</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O4" s="6">
-        <v>45688</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14">
-        <v>45720</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="14">
-        <v>46816</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="14">
-        <v>45762</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O5" s="14">
-        <v>45721</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45086</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="9">
-        <v>46164</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45700</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O6" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45070</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="9">
-        <v>46166</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O7" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44861</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45790</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="5">
-        <v>45775</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O8" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44861</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45790</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="5">
-        <v>45705</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O9" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9">
-        <v>45100</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="9">
-        <v>46172</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="9">
-        <v>45708</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O10" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45684</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="9">
-        <v>46710</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="9">
-        <v>45722</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N11" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O11" s="6">
-        <v>45685</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45161</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="5">
-        <v>46257</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="5">
-        <v>45370</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O12" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19">
-        <v>44203</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="19">
-        <v>45298</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="19">
-        <v>45698</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O13" s="20">
-        <v>45666</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="19">
-        <v>44627</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19">
-        <v>45701</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="19">
-        <v>45744</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="N14" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O14" s="20">
-        <v>45708</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="19">
-        <v>45266</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="19">
-        <v>46174</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="19">
-        <v>45714</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="N15" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O15" s="20">
-        <v>45715</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45049</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="5">
-        <v>46145</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="5">
-        <v>45734</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O16" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9">
-        <v>45518</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="9">
-        <v>46613</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="9">
-        <v>45771</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="5">
-        <v>45771</v>
-      </c>
-      <c r="O17" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="5">
-        <v>46783</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="5">
-        <v>45748</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N18" s="5">
-        <v>45769</v>
-      </c>
-      <c r="O18" s="6">
-        <v>45744</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="24">
-        <v>45246</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="24">
-        <v>46342</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="24">
-        <v>45735</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="N19" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O19" s="26">
-        <v>45733</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="24">
-        <v>45769</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="24">
-        <v>45769</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="N20" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O20" s="5">
-        <v>45775</v>
-      </c>
-      <c r="P20" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45246</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="6">
-        <v>45790</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="6">
-        <v>45754</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="N21" s="5">
-        <v>45775</v>
-      </c>
-      <c r="O21" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="26">
-        <v>45264</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" s="26">
-        <v>46315</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="26">
-        <v>45735</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="N22" s="9">
-        <v>45771</v>
-      </c>
-      <c r="O22" s="26">
-        <v>45691</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="28">
-        <v>45653</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="28">
-        <v>46549</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="28">
-        <v>45712</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N23" s="9">
-        <v>45775</v>
-      </c>
-      <c r="O23" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="9">
-        <v>45541</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I24" s="9">
-        <v>46636</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="9">
-        <v>45705</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="N24" s="9">
-        <v>45762</v>
-      </c>
-      <c r="O24" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45466</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="6">
-        <v>45466</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="6">
-        <v>45673</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="N25" s="5">
-        <v>45755</v>
-      </c>
-      <c r="O25" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="28">
-        <v>45665</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="28">
-        <v>45700</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="N26" s="5">
-        <v>45755</v>
-      </c>
-      <c r="O26" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="28">
-        <v>45758</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="28">
-        <v>45758</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="N27" s="5">
-        <v>45771</v>
-      </c>
-      <c r="O27" s="6">
-        <v>45775</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6">
-        <v>45505</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I28" s="6">
-        <v>46395</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="6">
-        <v>45720</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="N28" s="6">
-        <v>45771</v>
-      </c>
-      <c r="O28" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="6">
-        <v>43999</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="6">
-        <v>44967</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="6">
-        <v>45615</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="N29" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O29" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5">
-        <v>45266</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="5">
-        <v>46232</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="5">
-        <v>45693</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N30" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O30" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="6">
-        <v>44861</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="6">
-        <v>45790</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="6">
-        <v>45720</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="N31" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O31" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q31" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="6">
-        <v>44861</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="6">
-        <v>45729</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="6">
-        <v>45748</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="N32" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O32" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5">
-        <v>45440</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I33" s="5">
-        <v>46535</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="5">
-        <v>45714</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="N33" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O33" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="5">
-        <v>45715</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="5">
-        <v>46992</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="5">
-        <v>45720</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N34" s="6">
-        <v>45775</v>
-      </c>
-      <c r="O34" s="6">
-        <v>45715</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45709</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="9">
-        <v>46804</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="N35" s="6">
-        <v>45762</v>
-      </c>
-      <c r="O35" s="6">
-        <v>45713</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="9">
-        <v>45776</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="9">
-        <v>45776</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="N36" s="9">
-        <v>45776</v>
-      </c>
-      <c r="O36" s="9">
-        <v>45714</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="14">
-        <v>45700</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I37" s="14">
-        <v>46795</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="14">
-        <v>45744</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N37" s="6">
-        <v>45754</v>
-      </c>
-      <c r="O37" s="14">
-        <v>45701</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Q37" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+    <col min="1" max="17" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3994,57 +1865,163 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5">
-        <v>46795</v>
+        <v>46733</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>299</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4052,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -4120,7 +2097,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -4147,7 +2124,7 @@
         <v>45729</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>63</v>
@@ -4156,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -4165,42 +2142,42 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="I3" s="9">
         <v>46535</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -4209,7 +2186,7 @@
         <v>117</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -4218,7 +2195,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4226,7 +2203,7 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -4235,16 +2212,16 @@
         <v>159</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -4253,7 +2230,7 @@
         <v>46992</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
@@ -4262,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
@@ -4271,7 +2248,7 @@
         <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4279,25 +2256,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
@@ -4306,7 +2283,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
@@ -4315,24 +2292,24 @@
         <v>53</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>40</v>
@@ -4341,16 +2318,16 @@
         <v>45776</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>201</v>
@@ -4359,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
@@ -4368,7 +2345,7 @@
         <v>45776</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N6" s="9">
         <v>45776</v>
@@ -4377,7 +2354,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -4389,236 +2366,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="66.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46733</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -4848,7 +2595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -5184,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -5679,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -5962,7 +3709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -6139,7 +3886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -6316,7 +4063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -6419,8 +4166,8 @@
       <c r="L2" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>330</v>
+      <c r="M2" s="14" t="s">
+        <v>327</v>
       </c>
       <c r="N2" s="6">
         <v>45776</v>
@@ -6473,7 +4220,7 @@
         <v>286</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N3" s="6">
         <v>45776</v>
@@ -6525,8 +4272,8 @@
       <c r="L4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>332</v>
+      <c r="M4" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="N4" s="6">
         <v>45776</v>
@@ -6538,6 +4285,130 @@
         <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45700</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="13">
+        <v>46795</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="13">
+        <v>45744</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45777</v>
+      </c>
+      <c r="O2" s="13">
+        <v>45701</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>32</v>
       </c>
     </row>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06E951-EF17-4999-8323-679EF68678A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DF008-26D6-40C6-864B-C550A63B0393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="MONICA PARDO" sheetId="8" r:id="rId8"/>
     <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId9"/>
     <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId10"/>
+    <sheet name="SHANNERY CHAPARRO" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="345">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1321,6 +1322,30 @@
 06/03/2025 ASESOR RECIBIÓ CORRECCION Y ESTA EN PROCESO DE REALIZAR LOS AJUSTES NECESARIOS
 28/02/2025 EN TRAMITE DE REVISIÒN Y CORRECCIÒN AUTO ALEGATOS
 21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008134</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REVOCATORIA DE MANDATO DEL ACTUAL ALCALDE DEL MUNICIPIO DE HONDA TOLIMA, SEÑOR JUAN ENRIQUE RONDON GARCIA</t>
+  </si>
+  <si>
+    <t>TOLIMA</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>CARLOS HUGO MESA MAYNE</t>
+  </si>
+  <si>
+    <t>REVOCATORIA DE MANDATO</t>
+  </si>
+  <si>
+    <t>02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
+  </si>
+  <si>
+    <t>SHANNERY CHAPARRO</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,6 +1521,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2365,6 +2393,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45779</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="13">
+        <v>45779</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45779</v>
+      </c>
+      <c r="O2" s="13">
+        <v>45779</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q4"/>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DF008-26D6-40C6-864B-C550A63B0393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B344F3D-AAE9-4529-9DD1-C859D9DA862F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="345">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -2398,7 +2398,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2484,9 @@
       <c r="H2" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="J2" s="12" t="s">
         <v>343</v>
       </c>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B344F3D-AAE9-4529-9DD1-C859D9DA862F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC06FEEB-8672-4F85-AA51-06BC019181FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="351">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1346,6 +1346,24 @@
   </si>
   <si>
     <t>SHANNERY CHAPARRO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008157</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE PRÓRROGA PARA LA RECOLECCIÓN DE FIRMAS DE LA CONSULTA POPULAR DE ORIGEN CIUDADANO DENOMINADA "MUNICIPIO DE ALCALÁ EN EL ÁREA METROPOLITANA CENTRO OCCIDENTE AMCO</t>
+  </si>
+  <si>
+    <t>ALCALÁ</t>
+  </si>
+  <si>
+    <t>CARLOS ALCIDES ROJAS PEREZ</t>
+  </si>
+  <si>
+    <t>MECANISMOS DE PARTICIPACIÓN CIUDADANA</t>
+  </si>
+  <si>
+    <t>05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1525,6 +1543,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2059,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,6 +2409,59 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45417</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45782</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45783</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45714</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2397,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC06FEEB-8672-4F85-AA51-06BC019181FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA60AB-FFF9-4C89-ADF6-B318578C6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,25 @@
     <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId10"/>
     <sheet name="SHANNERY CHAPARRO" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="345">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -229,40 +242,16 @@
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: ANDREA TOBAR</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-004014</t>
-  </si>
-  <si>
     <t>04/03/2025</t>
   </si>
   <si>
-    <t>QUEJA CONTRA EL SEÑOR DANIEL BECERRA MIEMBRO DE LA JUNTA NACIONAL DE COORDINACIÓN DEL MOVIMIENTO POLITICO COLOMBIA HUMANA POR PRESUNTAMENTE UTILIZAR DINEROS DEL PARTIDO SIN DEBIDA AUTORIZACIÓN</t>
-  </si>
-  <si>
     <t>ANONIMO</t>
   </si>
   <si>
-    <t>DELITOS CONTRA LA ADMINISTRACIÓN PUBLICA</t>
-  </si>
-  <si>
-    <t>15/04/2025 OFICIO 006 SE ENVIO AL PETICIONARIO
-15/04/2025 OFICIO 004 SE ENVIO PARA EL MOVIMIENTO POLITICO COLOMBIA HUMANA
-05/03/2025 - RECIBIDO</t>
-  </si>
-  <si>
     <t>PRE-ARCHIVO</t>
   </si>
   <si>
     <t>15/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 PARA ARCHIVAR EN LA FECHA 29/04/2025
-07/04/2025 OFICIOS DE REVISIÓN DE LAURA
-25/03/2025 OFICIOS PARA REVISIÓN
-14/03/2025 OFICIOS PARA REVISIÓN
-05/03/2025 ENTREGARON REPARTO </t>
-  </si>
-  <si>
-    <t>05/03/2025</t>
   </si>
   <si>
     <t>ANYI AGUIRRE</t>
@@ -2082,7 +2071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2146,7 +2135,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -2158,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>36</v>
@@ -2173,16 +2162,16 @@
         <v>45729</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -2191,51 +2180,51 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I3" s="9">
         <v>46535</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -2244,7 +2233,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -2252,25 +2241,25 @@
     </row>
     <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -2279,25 +2268,25 @@
         <v>46992</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -2305,25 +2294,25 @@
     </row>
     <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>24</v>
@@ -2332,7 +2321,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
@@ -2341,24 +2330,24 @@
         <v>53</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>40</v>
@@ -2367,25 +2356,25 @@
         <v>45776</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
@@ -2394,7 +2383,7 @@
         <v>45776</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N6" s="9">
         <v>45776</v>
@@ -2403,7 +2392,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>32</v>
@@ -2411,7 +2400,7 @@
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>40</v>
@@ -2420,25 +2409,25 @@
         <v>45417</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
@@ -2447,7 +2436,7 @@
         <v>45782</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N7" s="6">
         <v>45783</v>
@@ -2456,7 +2445,7 @@
         <v>45714</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -2535,7 +2524,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>40</v>
@@ -2544,25 +2533,25 @@
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>26</v>
@@ -2571,7 +2560,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2580,7 +2569,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>32</v>
@@ -2593,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,163 +2646,110 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="9">
+        <v>46164</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="5">
-        <v>46816</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I3" s="9">
-        <v>46164</v>
+        <v>46166</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46166</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2825,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -2898,10 +2834,10 @@
         <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>36</v>
@@ -2916,7 +2852,7 @@
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -2925,7 +2861,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -2934,15 +2870,15 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -2951,10 +2887,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>36</v>
@@ -2969,16 +2905,16 @@
         <v>45790</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -2987,68 +2923,68 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I4" s="9">
         <v>46172</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -3057,43 +2993,43 @@
         <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I5" s="5">
         <v>46710</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>32</v>
@@ -3101,16 +3037,16 @@
     </row>
     <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>36</v>
@@ -3119,25 +3055,25 @@
         <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I6" s="5">
         <v>46257</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>29</v>
@@ -3146,10 +3082,10 @@
         <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3225,16 +3161,16 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -3243,60 +3179,60 @@
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
@@ -3305,42 +3241,42 @@
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -3358,42 +3294,42 @@
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
@@ -3402,25 +3338,25 @@
         <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>29</v>
@@ -3429,33 +3365,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>24</v>
@@ -3464,33 +3400,33 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
@@ -3499,25 +3435,25 @@
         <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
@@ -3526,51 +3462,51 @@
         <v>27</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
@@ -3579,33 +3515,33 @@
         <v>53</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -3614,25 +3550,25 @@
         <v>36</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>29</v>
@@ -3641,7 +3577,7 @@
         <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>36</v>
@@ -3720,25 +3656,25 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>38</v>
@@ -3747,16 +3683,16 @@
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -3765,42 +3701,42 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I3" s="9">
         <v>46315</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -3809,69 +3745,69 @@
         <v>53</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I4" s="9">
         <v>46549</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -3879,55 +3815,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4003,52 +3939,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I2" s="5">
         <v>45466</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4056,52 +3992,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4180,16 +4116,16 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -4198,16 +4134,16 @@
         <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -4216,16 +4152,16 @@
         <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4233,52 +4169,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4357,43 +4293,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I2" s="5">
         <v>44967</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N2" s="6">
         <v>45776</v>
@@ -4402,7 +4338,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4410,16 +4346,16 @@
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>36</v>
@@ -4428,25 +4364,25 @@
         <v>36</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I3" s="9">
         <v>46232</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N3" s="6">
         <v>45776</v>
@@ -4455,7 +4391,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4463,7 +4399,7 @@
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -4472,7 +4408,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -4490,16 +4426,16 @@
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N4" s="6">
         <v>45776</v>
@@ -4508,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4587,7 +4523,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -4596,25 +4532,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>26</v>
@@ -4623,7 +4559,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -4632,7 +4568,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>32</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA60AB-FFF9-4C89-ADF6-B318578C6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60514A-160C-4551-A363-458128D0C8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="349">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1354,6 +1354,18 @@
   <si>
     <t>05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
+  <si>
+    <t>CNE-E-DG-2025-008553</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE INTERVENCIÓN POR VULNERACIÓN DE DERECHO DE REPLICA - ARTICULO 17 LEY 1909 DE 2018</t>
+  </si>
+  <si>
+    <t>DIEGO FABIAN CASTILLO QUINTERO</t>
+  </si>
+  <si>
+    <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
 </sst>
 </file>
 
@@ -1362,7 +1374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,8 +1412,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,6 +1453,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1534,6 +1564,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3095,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="J8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,6 +3622,59 @@
         <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="19">
+        <v>45782</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="19">
+        <v>45789</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="5">
+        <v>45789</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45789</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="18" t="s">
         <v>36</v>
       </c>
     </row>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60514A-160C-4551-A363-458128D0C8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F3DDB-C9B6-493B-B273-CE680EEF2BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="340">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -162,9 +162,6 @@
     <t>27/10/2022</t>
   </si>
   <si>
-    <t>RELACION DE CANDIDATOS QUE NO PRESENTARON INFORME DE INGRESOS Y GASTOS DE CAMPAÑA -CONGRESO ELECCIONES 2022, EN ATENCION A LA OBLIGACION DISPUESTA EN EL ARTICULO 25 DE LA LEY 1475 DE 2011 Y POSIBLE VULNERACION A LOS TERMINOS ESTABLECIDOS EN EL ARTICULO 25 DE LEY 1475 DE 2011 -CONGRESO ELECCIONES 2022. (PARTIDO ALIANZA VERDE)</t>
-  </si>
-  <si>
     <t>VALLE DEL CAUCA</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>CNE-E-DG-2023-012966</t>
   </si>
   <si>
-    <t>09/06/2023</t>
-  </si>
-  <si>
     <t>DENUNCIA POR VIOLACIÓN AL ART. 35 DE LA LEY 1475 DE 2011, POR PARTE DEL PRECANDIDATO AL CONSEJO DE PEREIRA -RISARALDA, VICTOR CARMONA</t>
   </si>
   <si>
@@ -278,34 +272,13 @@
     <t>PUBLICIDAD</t>
   </si>
   <si>
-    <t>12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
-20/01/2025  RECIBIDO</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">29/04/2025 LA PLATAFORMA META DIO RESPUESTA AL AUTO MEJOR PROVEER
-07/04/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
-28/03/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
-13/03/2025 SE ENVIO AUTO MEJOR PROVEER PARA REVISIÓN 
-05/03/2025 EL SEÑOR VICTOR HUGO CARMONA DUQUE ALLEGO ALETOS DE CONCLUSIÓN Y EN LA FECHA 04/03/2025 VENCE TERMINOS PARA ALEGATOS 
-04/03/2025 VENCE TERMINOS PARA ALEGATOS 
-12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
-EL 17 DE FEBRERO VENCE TERMINOS PARA PRESENTAR DESCARGOS PARA LOS SUJETOS PROCESALES.
-PENDIENTE LAS COMUNICACIONES DE LA RESOLUCIÓN NO. 06680 DEL 18 DE DICIEMBRE DE 2024 DE APERTURA Y FORMULACIÓN DE CARGOS POR PRESUNTA VIOLACIÓN AL ARTICULO 35 DE LA LEY 1475 DE 2011. </t>
-  </si>
-  <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: ANYI AGUIRRE</t>
   </si>
   <si>
     <t>CNE-E-DG-2023-011738</t>
-  </si>
-  <si>
-    <t>24/05/2023</t>
   </si>
   <si>
     <t>DENUNCIA POR VIOLACIÓN AL ART. 35 DE LA LEY 1471 DE 20211, POR PARTE DEL PRE CANDIDATO A LA ALCALDIA DE TULUA -VALLE DEL CAUCA, SANDRA PATRICIA ARRUBLA CARDONA</t>
@@ -320,20 +293,6 @@
     <t>19/03/2025 RECIBIDO POR LA ASESORA ANYI AGUIRRE
 12/02/2025 RESOLUCIÓN No 0597 SE ABRE INVESTIGACION Y SE FORMULAN CARGOS CONTRA LA CIUDADANA SANDRA PATRICIA ARRUBLA POR LA PRESUNTA VULNERACION A LAS NORMAS QUE RIGEN LA PROPAGANDA ELECTORAL
 20/01/2025 - RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/04/2025 VENCE TERMINO PARA ALEGATOS
-03/04/2025 SE ENVIA AUTO No 034 PARA FIRMA
-28/03/2025 EN LA FECHA 27 DE MARZO DE 2025 VENCEN TERMINOS PARA PRESENTAR DESCARGOS
-17/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO, NO HAN PRESENTADO DESCARGO
-06/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-27/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
-05/02/2025 SE ENVIO A RADICAR A SALA 
-31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
-  </si>
-  <si>
-    <t>30/04/2025</t>
   </si>
   <si>
     <t>ORIGEN: VANESSA ROSSELL - JUAN DAVID OSPINA DESTINO: ANYI AGUIRRE</t>
@@ -1136,34 +1095,7 @@
     <t>RUBÉN MARTINEZ</t>
   </si>
   <si>
-    <t>CNE-E-DG-2022-022511 - BOGOTÁ D.C</t>
-  </si>
-  <si>
-    <t>01/04/2025 RESOLUCIÓN No 1472 POR MEDIO DE LA CUAL SE RESUEVE RECURSO DE REPOSICIÓN DEL EX GERENTE
-12/02/2025 RESOLUCIÓN No. 0616 POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN INTERPUESTO POR EL  EXCANDIDATO
-07/11/24 RESOLUCIÓN N° 5873 MEDIANTE LA CUAL SE SANCIONA AL EX CANDIDATO Y SU EX GERENTE APROBADA EN SALA EL 7 DE NOVIEMBRE. TÉRMINO PARA INTERPONER RECURSO HASTA EL 21/01/2025.
-28/08/24 AUTO NO. 116 CORRIGE AUTO 105 Y CORRE TRASLADO DE ALEGATOS DE CONCLUSIÓN. FINALIZA TÉRMINO PARA PRESENTAR ALEGATOS EL 19/09.
-30/07/24 AUTO NO. 105 CORRE TRASLADO PARA PRESENTAR ALEGATOS DE CONCLUSIÓN.
-17/04/24 RESOLUCIÓN NO. 02077 POR MEDIO DE LA CUAL SE APERTURA Y SE FORMULA CARGOS. VENCE TÉRMINO PARA PRESENTAR DESCARGOS EL 25/07/24.
-21/03/24 PONENCIA DE APERTURA RADICADA PARA LA SALA DEL 10/04/24.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 PENDIENTE COMUNICACIONES PARA ARCHIVO 
-07/04/2025 PENDIENTE COMUNICACIONES PARA ARCHIVO 
-28/03/2025 ENTRO PARA SALA EL 1 DE ABRIL DE 2025
-13/03/2025 SE RADICÓ EN SALA PONENCIA POR MEDIO DE LA CUAL SE REVUELVE RECURSO DE REPOSICIÓN
-06/03/2025 PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN DEL EXGERENTE DE CAMPAÑA EN SEGUNDO FILTRO.
-27/02/2025 PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN INTERPUESTO POR EL EXGERENTE DE CAMPAÑA EN REVISIÓN DE SEGUNDO FILTRO.
-20/02/2025 PENDIENTE DE RESOLVER RECURSO DE REPOSICIÓN DEL EXGERENTE.
-13/02/2025 PENDIENTE COMUNICACIONES PARA ARCHIVAR
-RADICADA EN SALA EL DÍA 05/02/2025, PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN 
-PONENCIA POR MEDIO DE LA CUAL SE RESUELVE RECURSO DE REPOSICIÓN EN REVISIÓN DE LAURA 28/01/2025 </t>
-  </si>
-  <si>
     <t>STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>ORIGEN: MARGARITA RONCALLO DESTINO: STEPHANI GUERRERO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-012113</t>
@@ -1365,6 +1297,36 @@
   </si>
   <si>
     <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
+  <si>
+    <t>14/04/2025AUTO No 034 -TRASLADO DE ALEGATOS PUBLICIDAD
+20/03/2025 AUTO 028- PRUEBAS PUBLICIDAD MEJOR PROVEER
+12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
+20/01/2025  RECIBIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/04/2025SE ENVÍO RESOLUCIÓN QUE DA POR TERMINADO A REVISIÓN DE LAURA
+29/04/2025 LA PLATAFORMA META DIO RESPUESTA AL AUTO MEJOR PROVEER
+07/04/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
+28/03/2025 EN LA FECHA 21/03/2025 SE ENVIA AUTO MEJOR PROVEER PARA FIRMAS
+13/03/2025 SE ENVIO AUTO MEJOR PROVEER PARA REVISIÓN 
+05/03/2025 EL SEÑOR VICTOR HUGO CARMONA DUQUE ALLEGO ALETOS DE CONCLUSIÓN Y EN LA FECHA 04/03/2025 VENCE TERMINOS PARA ALEGATOS 
+04/03/2025 VENCE TERMINOS PARA ALEGATOS 
+12/02/2025 SE ENVIO AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS A REVISIÓN DE PRIMER FILTRO.
+EL 17 DE FEBRERO VENCE TERMINOS PARA PRESENTAR DESCARGOS PARA LOS SUJETOS PROCESALES.
+PENDIENTE LAS COMUNICACIONES DE LA RESOLUCIÓN NO. 06680 DEL 18 DE DICIEMBRE DE 2024 DE APERTURA Y FORMULACIÓN DE CARGOS POR PRESUNTA VIOLACIÓN AL ARTICULO 35 DE LA LEY 1475 DE 2011. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/05/2025PROYECTANDO RESOLUCIÓN - LA CANDIDATA NO HA ALLEGADO ALEGATOS
+30/04/2025 VENCE TERMINO PARA ALEGATOS
+03/04/2025 SE ENVIA AUTO No 034 PARA FIRMA
+28/03/2025 EN LA FECHA 27 DE MARZO DE 2025 VENCEN TERMINOS PARA PRESENTAR DESCARGOS
+17/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO, NO HAN PRESENTADO DESCARGO
+06/03/2025 SIGUE EN ESPERA SE QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+27/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
+05/02/2025 SE ENVIO A RADICAR A SALA 
+31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
   </si>
 </sst>
 </file>
@@ -2000,34 +1962,34 @@
     </row>
     <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
@@ -2036,7 +1998,7 @@
         <v>29</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -2053,55 +2015,55 @@
     </row>
     <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="9">
         <v>46779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,45 +2137,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="9">
+        <v>46535</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45729</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -2221,275 +2183,222 @@
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="P2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9">
+        <v>46992</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46535</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="9">
-        <v>46992</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>310</v>
+        <v>46804</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>57</v>
+      <c r="L4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45776</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="F5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46804</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>53</v>
+      <c r="L5" s="9">
+        <v>45776</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="N5" s="9">
+        <v>45776</v>
+      </c>
+      <c r="O5" s="9">
+        <v>45714</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="9">
-        <v>45776</v>
+        <v>45417</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9">
-        <v>45776</v>
+        <v>45782</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="N6" s="9">
-        <v>45776</v>
-      </c>
-      <c r="O6" s="9">
+        <v>332</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45783</v>
+      </c>
+      <c r="O6" s="6">
         <v>45714</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>294</v>
+      <c r="P6" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45417</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="9">
-        <v>45782</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="N7" s="6">
-        <v>45783</v>
-      </c>
-      <c r="O7" s="6">
-        <v>45714</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2566,34 +2475,34 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="13">
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>26</v>
@@ -2602,7 +2511,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2611,7 +2520,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>32</v>
@@ -2626,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,78 +2599,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9">
+        <v>45086</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I2" s="9">
         <v>46164</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>69</v>
+      <c r="J2" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="9">
+        <v>45761</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45070</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
@@ -2769,29 +2678,29 @@
       <c r="I3" s="9">
         <v>46166</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>79</v>
+      <c r="J3" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>53</v>
+      <c r="L3" s="9">
+        <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>339</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45761</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45691</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2776,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -2876,25 +2785,25 @@
         <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -2903,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -2912,15 +2821,15 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -2929,34 +2838,34 @@
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="9">
         <v>45790</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
@@ -2965,113 +2874,113 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I4" s="9">
         <v>46172</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="408" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I5" s="5">
         <v>46710</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>32</v>
@@ -3079,43 +2988,43 @@
     </row>
     <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5">
         <v>46257</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>29</v>
@@ -3124,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" workbookViewId="0">
+    <sheetView topLeftCell="J8" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:Q10"/>
     </sheetView>
   </sheetViews>
@@ -3203,78 +3112,78 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>24</v>
@@ -3283,51 +3192,51 @@
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
@@ -3336,69 +3245,69 @@
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>29</v>
@@ -3407,33 +3316,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>24</v>
@@ -3442,60 +3351,60 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>26</v>
@@ -3504,113 +3413,113 @@
         <v>27</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>29</v>
@@ -3619,42 +3528,42 @@
         <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C10" s="19">
         <v>45782</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>26</v>
@@ -3663,7 +3572,7 @@
         <v>45789</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="N10" s="5">
         <v>45789</v>
@@ -3672,10 +3581,10 @@
         <v>45789</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3751,43 +3660,43 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>29</v>
@@ -3796,113 +3705,113 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I3" s="9">
         <v>46315</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I4" s="9">
         <v>46549</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -3910,55 +3819,55 @@
     </row>
     <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4034,52 +3943,52 @@
     </row>
     <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I2" s="5">
         <v>45466</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4087,52 +3996,52 @@
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4211,52 +4120,52 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4264,52 +4173,52 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4388,43 +4297,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I2" s="5">
         <v>44967</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="N2" s="6">
         <v>45776</v>
@@ -4433,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>32</v>
@@ -4441,43 +4350,43 @@
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I3" s="9">
         <v>46232</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="N3" s="6">
         <v>45776</v>
@@ -4486,7 +4395,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>32</v>
@@ -4494,7 +4403,7 @@
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
@@ -4503,34 +4412,34 @@
         <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="9">
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="N4" s="6">
         <v>45776</v>
@@ -4539,7 +4448,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4618,7 +4527,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -4627,25 +4536,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>26</v>
@@ -4654,7 +4563,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -4663,7 +4572,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>32</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F3DDB-C9B6-493B-B273-CE680EEF2BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C19DD-71F7-4622-A7E6-0F1A52647703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
-    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId2"/>
-    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId3"/>
-    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId4"/>
-    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId5"/>
-    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId6"/>
-    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId7"/>
-    <sheet name="MONICA PARDO" sheetId="8" r:id="rId8"/>
-    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId9"/>
-    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId10"/>
-    <sheet name="SHANNERY CHAPARRO" sheetId="11" r:id="rId11"/>
+    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
+    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId2"/>
+    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId3"/>
+    <sheet name="JULIANA NUÑEZ" sheetId="5" r:id="rId4"/>
+    <sheet name="LAURA ORTEGON" sheetId="6" r:id="rId5"/>
+    <sheet name="MIGUEL CALDERON" sheetId="7" r:id="rId6"/>
+    <sheet name="MONICA PARDO" sheetId="8" r:id="rId7"/>
+    <sheet name="RUBÉN MARTINEZ" sheetId="9" r:id="rId8"/>
+    <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId9"/>
+    <sheet name="SHANNERY CHAPARRO" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="322">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -100,9 +99,6 @@
   </si>
   <si>
     <t>LORDUY</t>
-  </si>
-  <si>
-    <t>12/12/2024</t>
   </si>
   <si>
     <t>PRESUNTA VULNERACIÓN DEL ART. 23 DE LA LEY 1475 DE 2011, LIMITES A LA FINANCIACIÓN PRIVADA</t>
@@ -133,27 +129,10 @@
     <t>01/04/2025</t>
   </si>
   <si>
-    <t>28/04/2025 EN ESPERA DE COMUNICACIONES PARA INICIAR AUTO DE ALEGATOS
-07/04/2025 EN ESPERA DE SU DEBIDA NOTIFICACION
-27/03/2025 SE REALIZA FORMULACIÓN DE CARGOS EN CONTRA DEL EXCANDIDATO, SE RADICO EN SALA EL 20 DE MARZO 
-14/03/2025 EN PROCESO DE REALIZACION RESOLUCION DE FORMULACION DE CARGOS AL EX GERENTE DE CAMPAÑA 
-06/03/2025 EN ESPERA DE TERMINO PARA REALIZAR AUTO DE ALEGATOS (10/03/2025)
-27/02/2025 - EN ESPERA DEL TERMINO PARA INICIAR AUTO DE ALEGATOS DE CONCLUSIÓN. 
-21/02/2025 - EN ESPERA DE QUE ALLEGUEN DESCARGOS
-13/02/2024 - EN ESPERA DE COMUNICACIONES 
-04/02/2025 A LA ESPERA DE COMUNICACIONES
-23/01/2025 EN ESPERA DE COMUNICACIÓN
-15/01/2025 PONENCIA PARA RADICAR EN SALA 
-PENDIENTE EN NOTIFICACION</t>
-  </si>
-  <si>
     <t>28/04/2025</t>
   </si>
   <si>
     <t>03/02/2025</t>
-  </si>
-  <si>
-    <t>ANDREA TOBAR</t>
   </si>
   <si>
     <t>NO</t>
@@ -196,13 +175,7 @@
 11/04/2025 RECIBIDO</t>
   </si>
   <si>
-    <t>28/04/2025 A LA ESPERA DE COMUNICACIONES</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-001116</t>
-  </si>
-  <si>
-    <t>27/01/2025</t>
   </si>
   <si>
     <t>CONFORMACIÓN DEL DIRECTORIO DEPARTAMENTAL DEL VALLE DE CAUCA DEL PARTIDO DE LA UNION POR LA GENTE - PARTIDO DE LA U</t>
@@ -223,22 +196,9 @@
     <t>19/03/2025</t>
   </si>
   <si>
-    <t>28/04/2025 SE REALIZA NUEVO AUTO QUE EXHORTA EN REVISIÓN DE SHANNERY
-21/04/2025 EL REPRESENTANTE LEGAL ALLEGA PARCIALMENTE LO SOLICITADO POR AUTO 032
-07/04/2025 SE REALIZO AUTO 032 DEL 2 DE ABRIL QUE EXHORTA AL PARTIDO - SE ENVIA PARA SU DEBIDA FIRMA POR PARTE DEL PRESIDENTE EL 2 DE ABRIL DE 2025 
-27/03/2025 REALIZACIÓN DE AUTO DE INSTAR
-17/03/2025 UNA VEZ ENVIEN LA INFORMACION SE PROCEDE A INSCRIBIR LOS CANDIDATOS O A NEGAR LA INSCRIPCIÓN
-06/03/2025 SIGUE EN REVISIÓN AUTO
-27/02/2025 AUTO ENVIADO A SHAN EL 25 DE FEBRERO
-20/02/2025 ESTA EN REVISIÓN OTRO AUTO QUE DECRETA PRUEBAS SOLICITANDOLE AL PARTIDO DE LA U DOCUMENTOS PARA LA INSCRIPCIÓN DE DIRECTIVOS DEL DIRECTORIO DEPARTAMENTAL DEL VALLE DEL CAUCA</t>
-  </si>
-  <si>
     <t>31/01/2025</t>
   </si>
   <si>
-    <t>ORIGEN: JUAN DAVID OSPINA DESTINO: ANDREA TOBAR</t>
-  </si>
-  <si>
     <t>04/03/2025</t>
   </si>
   <si>
@@ -248,9 +208,6 @@
     <t>PRE-ARCHIVO</t>
   </si>
   <si>
-    <t>15/04/2025</t>
-  </si>
-  <si>
     <t>ANYI AGUIRRE</t>
   </si>
   <si>
@@ -270,9 +227,6 @@
   </si>
   <si>
     <t>PUBLICIDAD</t>
-  </si>
-  <si>
-    <t>12/02/2025</t>
   </si>
   <si>
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: ANYI AGUIRRE</t>
@@ -370,9 +324,6 @@
     <t>CNE-E-DG-2023-013843 - CNE-E-DG-2023-013856</t>
   </si>
   <si>
-    <t>23/06/2023</t>
-  </si>
-  <si>
     <t>QUEJA POR PUBLICIDAD POLITICA EXTEMPORANEA CONTRA CESAR EMILIO CURA VERGARA ''MILLO'' CANDIDATO A LA ALCALDIA MUNICIPAL DE MONTELIBANO -CORDOBA</t>
   </si>
   <si>
@@ -392,23 +343,6 @@
     <t>20/02/2025</t>
   </si>
   <si>
-    <t>23/04/2025 REVISIÓN PONENCIA DA POR TERMINADO, EN REVISIÓN MONICA PARDO
-07/04/2025 EN OBSERVACION, PROYECTANDO PONENCIA
-31/03/2025 AUN CONTINUA EN PROCESO DE ESTUDIAR EL CASO ACUERDO A LOS ELEMENTOS PROBATORIOS ANEXADOS AL EXPEDIENTE PARA PROYECTAR PONENCIA YA SEA DE SANCIÓN O ACCIÓN
-14/03/2025 SE PROCEDERA A ESTUDIAR EL CASO ACUERDO A LOS ELEMENTOS PROBATORIOS ANEXADOS AL EXPEDIENTE PARA PROYECTAR PONENCIA YA SEA DE SANCIÓN O ACCIÓN
-06/03/2025 SIGUE EN COMUNICACIONES DEL AUTO 018 DE 2025 
-17/02/2025 - RECIBÍ COMUNICACIONES DEL AUTO 018 DE 2025
-12/02/2025 ENVIADO A MAGISTRADO AUTO TRASLADO PARA FIRMA
-29/01/2025 ENVIADO AUTO ALEGATOS PARA REVISIÓN DE SHANNERY
-23/01/2025 SE ENVIA A CORRECCIÓN DE LAURA, AUTO CORRE TRASLADO Y DECRETAN PRUEBAS</t>
-  </si>
-  <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
-    <t>ORIGEN: VANESSA ROSSELL - DESTINO: GENESIS CUELLO</t>
-  </si>
-  <si>
     <t>06/12/2023</t>
   </si>
   <si>
@@ -446,32 +380,12 @@
 28/02/2025 RECIBIDO</t>
   </si>
   <si>
-    <t>06/03/2025</t>
-  </si>
-  <si>
-    <t>22/04/2025 SE REENVÍA AUTO DE ALEGATOS A MONICA PARDO
-07/04/2025 SE PROYECTARA AUTO ALEGATOS
-31/03/2025 RECIBI COMUNICACIONES EL 26 DE MARZO
-14/03/2025 LA PONENCIA 16994 POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS
-06/03/2025 ASESOR CON INFORMACIÓN AL DÍA
-27/02/2025 - PONENCIA 16994 POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS / ENTRA EN SALA EL 04 DE MARZO DE 2025
-20/02/2025 PONENCIA POR MEDIO DEL CUAL SE FORMULAN CARGOS, EN REVISIÓN DE SHANNERY
-13/02/2025 CORRIGIENDO PONENCIA POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS ARTICULO 34 DE LA LEY 1475 
-06/02/2025 ENVIADA PONENCIA POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS ARTICULO 34 DE LA LEY 1475 A LAURA</t>
-  </si>
-  <si>
     <t>22/04/2025</t>
   </si>
   <si>
-    <t>28/01/2025</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2023-021293</t>
   </si>
   <si>
-    <t>23/08/2023</t>
-  </si>
-  <si>
     <t>PUBLICIDAD PROPAGANDA ELECTORAL</t>
   </si>
   <si>
@@ -479,17 +393,11 @@
   </si>
   <si>
     <t>19/03/2025 RECIBIDO POR LA ASESORA GENESIS CUELLO</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
   </si>
   <si>
     <t>28/04/2024 PROYECTANDO RECURSO INTERPUESTO A LA RESOLUCIÓN SANCIÓN
 07/04/2025 EN ESTUDIO DE EXPEDIENTE
 31/03/2025 ASESOR INDICA QUE EL EXPEDIENTE ESTA EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>ORIGEN: JUAN DAVID OSPINA DESTINO: GENESIS CUELLO</t>
   </si>
   <si>
     <t>2021-000146 - 2021-000147</t>
@@ -780,9 +688,6 @@
     <t>CNE-E-DG-2023-067381</t>
   </si>
   <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
     <t>ENCUESTAS ELECTORALES</t>
   </si>
   <si>
@@ -798,18 +703,7 @@
     <t>19/03/2025 RECIBIDO POR LA ASESORA JULIANA NUÑEZ</t>
   </si>
   <si>
-    <t>24/04/2025 ENVIADO A REVISIÓN PONENCIA POR MEDIO DEL CUAL SE SANCIONA A LA FIRMA ENCUESTADORA EXPERTISE SAS
-07/04/2025 ASESOR INDICA QUE EL EXPEDIENTE SE ENCUENTRA EN REVISIÓN
-01/04/2025 - ASESOR INDICA QUE EL EXPEDIENTE SE ENCUENTRA EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>ORIGEN: JUAN DAVID DESTINO: JULIANA NUÑEZ</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2024-023516</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
   </si>
   <si>
     <t>PRESUNTA ADULTERACIÓN DEL ARTÍCULO 16 DE LA RESOLUCIÓN NO. 4737 DE 2023, A LA ALCALDÍA DE QUIPAMA - BOYACÁ, COALICIÓN "QUIPAMA LA FUERZA QUE NOS UNE", ELECCIONES REALIZADAS EL 29 DE OCTUBRE DEL 2023</t>
@@ -830,28 +724,7 @@
  PENDIENTE DECISIÓN DEL MAGISTRADO CÉSAR LORDUY</t>
   </si>
   <si>
-    <t>24/02/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/04/2025 SE ALLEGARON LAS DECLARACIONES EXTRA JUICIO REMITIDAS POR EL SEÑOR FELIX ALEJANDRO GUTIERREZ VEGA
-26/02/2025 RECIBIDAS LAS COMUNICACIONES DEL AUTO 022
-07/04/2025 SIGUEN PENDIENTES LAS COMUNICACIONES DEL AUTO 022
-1/04/2025 SIGUEN PENDIENTES LAS COMUNICACIONES DEL AUTO 022
-17/03/2025 SIGUE EN COMUNICACIOES DEL AUTO 022 DEL 24 DE FEBRERO DE 2025 
-06/03/2025 EN COMUNICACIOES DEL AUTO 022 DEL 24 DE FEBRERO DE 2025 
-25/02/2025 SE COMUNICÓ EL AUTO 022 DEL 24 DE FEBRERO DE 2025 
-20/02/2025 SE PROFIRIO EL AUTO 017 Y SE NOFITICÓ EL DÍA 17/02/2025
-06/02/2025 - A LA ESPERA DECISIÓN DEL PARTIDO CAMBIO RADICAL 
-A LA ESPERA DECISIÓN DEL PARTIDO CAMBIO RADICAL </t>
-  </si>
-  <si>
-    <t>04/04/2025</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2024-017268</t>
-  </si>
-  <si>
-    <t>06/09/2024</t>
   </si>
   <si>
     <t>DENUNCIA POR VIOLENCIA PÓLITICA HACIA LA MUJER EN EL CONCEJO MUNICIPAL DE ZIPAQUIRÁ - CUNDINAMARCA</t>
@@ -871,22 +744,7 @@
 20-01-2025 - RECIBIDO</t>
   </si>
   <si>
-    <t xml:space="preserve">15/04/2025 ENVIADA PONENCIA POR MEDIO DEL CUAL SE DA POR TERMINADO AL PARTIDO ALIANZA VERDE, EN REVISIÓN POR MIGUEL
-01/04/2025 OFICIO 050 AUN EN TRÁMITE DE COMUNICACIONES
-17/03/2025 SIGUE EN COMUNICACIONES DEL OFICIO 050
-06/03/2025 EN COMUNICACIONES DEL OFICIO 050 EL DIA 19/02/2025
-SE COMUNICÓ EL OFICIO 050 EL DIA 19/02/2025
-17/02/2025 SE NOTIFICO EL AUTO 010 DEL 23 DE ENERO DEL 2025 
-24/01/2025 SE NOTIFICO EL AUTO 010 DEL 23 DE ENERO DEL 2025 </t>
-  </si>
-  <si>
-    <t>ORIGEN: VANESSA ROSSELL - DESTINO: JULIANA NUÑEZ</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2023-014262 - CNE-E-DG-2023-014265</t>
-  </si>
-  <si>
-    <t>23/06/2024</t>
   </si>
   <si>
     <t>SOLICITUD DE RECONOCIMIENTO DEL LEGADO DE LA GUAJIRA DEL MOVIMIENTO COLOMBIA HUMANA</t>
@@ -905,9 +763,6 @@
 29/08/2024: AUTO NO 109 DEL 13-08/2024 PRUEBAS DE IMPUGNACIÓN.
 01/02/2024  SE PROFIRIO AUTO NO 006 REITERANDO DECRETO DE PRUEBAS; 
 SE RECIBIERON HASTA EL 25 DE ABRIL DEL AÑO EN CURSO SOPORTES DE COMUNICACIÓN. SE PROFIRIÓ. AUTO N 109 DEL 13 DE AGOSTO DE 2024, EL CUAL DECRETÓ LA PRÁCTICA DE UNAS PRUEBAS PARA MEJOR PROVEER. SE NOTIFICÓ EL 28 DE AGOSTO DE 2024. SE PROFIRIÓ ACTO ADMINISTRATIVO NO 127 DEL 23 DE OCTUBRE DE 2024, A TRAVÉS DEL CUAL SE INSTA AL MOVIMIENTO COLOMBIA HUMANA A DAR CUMPLIMIENTO A LO CONMINADO EN EL ARTÍCULO PRIMERO DEL AUTO 109.</t>
-  </si>
-  <si>
-    <t>16/01/2025</t>
   </si>
   <si>
     <t>08/04/2025 PENDIENTE RESOLUCIÓN PARA SER FIRMADA Y PENDIENTE DE NOTIFICACIONES
@@ -918,16 +773,10 @@
 15/01/2025 SE DEBE CORRER TRASLADO</t>
   </si>
   <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
     <t>LAURA ORTEGON</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-000141</t>
-  </si>
-  <si>
-    <t>08/01/2025</t>
   </si>
   <si>
     <t>SOLICITUD DE REVOCATORIA DE INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO, EL SEÑOR JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025</t>
@@ -1023,9 +872,6 @@
     <t>ROZO</t>
   </si>
   <si>
-    <t>17/06/2020</t>
-  </si>
-  <si>
     <t>CANDIDATOS QUE PRESUNTAMENTE INCUMPLIERON CON LA OBLIGACIÓN DE PRESENTAR SU INFORME DE INGRESOS Y GASTOS DE CAMPAÑA, ELECCIONES 27 DE OCTUBRE DE 2019, PARTIDO CONSERVADOR COLOMBIANO</t>
   </si>
   <si>
@@ -1042,9 +888,6 @@
 RESOLUCION 6283 DEL 9 DE AGOSTO POR LA CUAL SE RESUELVEN UNOS RECURSOS DE REPOSICION</t>
   </si>
   <si>
-    <t>19/11/2024</t>
-  </si>
-  <si>
     <t>MONICA PARDO</t>
   </si>
   <si>
@@ -1056,9 +899,6 @@
   <si>
     <t>05/02/2025 AUTO DELEGATOS DE CONCLUSION
 28/02/2024 RES. 1501 SE ABRE INVESTIGACION Y FORMULA CARGOS</t>
-  </si>
-  <si>
-    <t>05/02/2025</t>
   </si>
   <si>
     <t>CNE-E-DG-2022-023717</t>
@@ -1099,9 +939,6 @@
   </si>
   <si>
     <t>CNE-E-DG-2024-012113</t>
-  </si>
-  <si>
-    <t>28/05/2024</t>
   </si>
   <si>
     <t>ACCIÓN DE PROTECCION DE DERECHOS DE OPOSICIÓN CONTRA ALCALDIA DE ACHÍ- BOLIVAR POR POSIBLE VULNERCIÓN AL ARTICULO 16 DE LA LEY 1909 DE 2018</t>
@@ -1152,21 +989,7 @@
     <t>CAMILO MORENO</t>
   </si>
   <si>
-    <t>04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
-27/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
-07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
-28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-003216</t>
-  </si>
-  <si>
-    <t>21/02/2025</t>
   </si>
   <si>
     <t xml:space="preserve">QUEJA SOBRE LA FINANCIACIÓN DE LA CAMPAÑA COMO CANDIDATO, DEL ACTUAL ALCALDE DEL MUNICIPIO DE COTA - CUNDINAMARCA, SEÑOR NESTOR ORLANDO BALSERO GARCÍA </t>
@@ -1182,42 +1005,9 @@
 19/03/2025 RECIBIDO POR LA ASESORA STEPHANI GUERRERO</t>
   </si>
   <si>
-    <t>15/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
-07/04/2025 PENDIENTE DE COMUNICACIONES
-28/03/2025 AUTO AVOCA EN REVISIÓN DE PRIMER FILTRO EL 20 DE MARZO DE 2025
-17/03/2025 EN PROYECCIÓN AUTO QUE AVOCA
-06/03/2025 ASESOR INDICA QUE EL EXPEDIENTE SIGUE EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>25/02/2025</t>
-  </si>
-  <si>
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: STEPHANI GUERRERO</t>
   </si>
   <si>
-    <t>29/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
-07/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
-31/03/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
-18/03/2025 SIGUE PENDIENTE PARA ARCHIVAR
-27/02/2025 - VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
-21/02/2025 VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
-VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE</t>
-  </si>
-  <si>
-    <t>29/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
-07/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
-31/03/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
-18/03/2025 PENDIENTE PROYECTAR DE TERMINACIÓN (YA SE RECIBIERON LOS ALEGATOS)
-27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
-  </si>
-  <si>
-    <t>29/04/2025 EN TRÁMITE DE RECURSOS
-07/04/2025 EN TRÁMITE DE RECURSOS
-31/03/2025 EN TRÁMITE DE RECURSOS
-18/03/2025 PENDIENTE DE RECURSOS
-27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-007754</t>
   </si>
   <si>
@@ -1228,9 +1018,6 @@
   </si>
   <si>
     <t>GUSTAVO GARCIA FIGUEROA Y JENNY LILIANA PULIDO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-002441</t>
@@ -1282,9 +1069,6 @@
   </si>
   <si>
     <t>MECANISMOS DE PARTICIPACIÓN CIUDADANA</t>
-  </si>
-  <si>
-    <t>05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-008553</t>
@@ -1327,6 +1111,181 @@
 20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
 05/02/2025 SE ENVIO A RADICAR A SALA 
 31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
+  </si>
+  <si>
+    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
+04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
+27/02/2025 RECIBIDO</t>
+  </si>
+  <si>
+    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
+28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
+07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
+28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
+  </si>
+  <si>
+    <t>14/05/2025 AUTO REITERA EN REVISIÓN DE MIGUEL
+15/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
+07/04/2025 PENDIENTE DE COMUNICACIONES
+28/03/2025 AUTO AVOCA EN REVISIÓN DE PRIMER FILTRO EL 20 DE MARZO DE 2025
+17/03/2025 EN PROYECCIÓN AUTO QUE AVOCA
+06/03/2025 ASESOR INDICA QUE EL EXPEDIENTE SIGUE EN REVISIÓN</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO
+05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
+29/04/2025 RECIBIDO POR LA ASESORA STPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
+29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>14/05/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+07/04/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+31/03/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
+18/03/2025 SIGUE PENDIENTE PARA ARCHIVAR
+27/02/2025 - VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+21/02/2025 VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE
+VERIFICAR LAS COMUNICACIONES PARA ARCHIVAR EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>14/05/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+07/04/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+31/03/2025 EN ESPERA DE PROYECCION DE TERMINACION (ALEGATOS RECIBIDOS)
+18/03/2025 PENDIENTE PROYECTAR DE TERMINACIÓN (YA SE RECIBIERON LOS ALEGATOS)
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>14/05/2025 EN TRÁMITE DE RECURSOS
+07/04/2025 EN TRÁMITE DE RECURSOS
+31/03/2025 EN TRÁMITE DE RECURSOS
+18/03/2025 PENDIENTE DE RECURSOS
+27/02/2025 - NO APLICA SEGUIMIENTO - SIN NOVEDAD EN EXPEDIENTE</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A ANYI AGUIRRE
+22/04/2025 SE REENVÍA AUTO DE ALEGATOS A MONICA PARDO
+07/04/2025 SE PROYECTARA AUTO ALEGATOS
+31/03/2025 RECIBI COMUNICACIONES EL 26 DE MARZO
+14/03/2025 LA PONENCIA 16994 POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS
+06/03/2025 ASESOR CON INFORMACIÓN AL DÍA
+27/02/2025 - PONENCIA 16994 POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS / ENTRA EN SALA EL 04 DE MARZO DE 2025
+20/02/2025 PONENCIA POR MEDIO DEL CUAL SE FORMULAN CARGOS, EN REVISIÓN DE SHANNERY
+13/02/2025 CORRIGIENDO PONENCIA POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS ARTICULO 34 DE LA LEY 1475 
+06/02/2025 ENVIADA PONENCIA POR MEDIO DEL CUAL SE ABRE Y SE FORMULAN CARGOS ARTICULO 34 DE LA LEY 1475 A LAURA</t>
+  </si>
+  <si>
+    <t>ORIGEN: GENESIS CUELLO DESTINO: ANYI AGUIRRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/05/2025 REASIGNADO A LA ASESORA ANYI AGUIRRE
+15/04/2025 ENVIADA PONENCIA POR MEDIO DEL CUAL SE DA POR TERMINADO AL PARTIDO ALIANZA VERDE, EN REVISIÓN POR MIGUEL
+01/04/2025 OFICIO 050 AUN EN TRÁMITE DE COMUNICACIONES
+17/03/2025 SIGUE EN COMUNICACIONES DEL OFICIO 050
+06/03/2025 EN COMUNICACIONES DEL OFICIO 050 EL DIA 19/02/2025
+SE COMUNICÓ EL OFICIO 050 EL DIA 19/02/2025
+17/02/2025 SE NOTIFICO EL AUTO 010 DEL 23 DE ENERO DEL 2025 
+24/01/2025 SE NOTIFICO EL AUTO 010 DEL 23 DE ENERO DEL 2025 </t>
+  </si>
+  <si>
+    <t>ORIGEN: JULIANA NUÑEZ DESTINO: ANYI AGUIRRE</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A ANYI AGUIRRE
+23/04/2025 REVISIÓN PONENCIA DA POR TERMINADO, EN REVISIÓN MONICA PARDO
+07/04/2025 EN OBSERVACION, PROYECTANDO PONENCIA
+31/03/2025 AUN CONTINUA EN PROCESO DE ESTUDIAR EL CASO ACUERDO A LOS ELEMENTOS PROBATORIOS ANEXADOS AL EXPEDIENTE PARA PROYECTAR PONENCIA YA SEA DE SANCIÓN O ACCIÓN
+14/03/2025 SE PROCEDERA A ESTUDIAR EL CASO ACUERDO A LOS ELEMENTOS PROBATORIOS ANEXADOS AL EXPEDIENTE PARA PROYECTAR PONENCIA YA SEA DE SANCIÓN O ACCIÓN
+06/03/2025 SIGUE EN COMUNICACIONES DEL AUTO 018 DE 2025 
+17/02/2025 - RECIBÍ COMUNICACIONES DEL AUTO 018 DE 2025
+12/02/2025 ENVIADO A MAGISTRADO AUTO TRASLADO PARA FIRMA
+29/01/2025 ENVIADO AUTO ALEGATOS PARA REVISIÓN DE SHANNERY
+23/01/2025 SE ENVIA A CORRECCIÓN DE LAURA, AUTO CORRE TRASLADO Y DECRETAN PRUEBAS</t>
+  </si>
+  <si>
+    <t>ORIGEN:GENESIS CUELLO  DESTINO: ANYI AGUIRRE</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LA ASESORA LAURA ORTEGON
+24/04/2025 ENVIADO A REVISIÓN PONENCIA POR MEDIO DEL CUAL SE SANCIONA A LA FIRMA ENCUESTADORA EXPERTISE SAS
+07/04/2025 ASESOR INDICA QUE EL EXPEDIENTE SE ENCUENTRA EN REVISIÓN
+01/04/2025 - ASESOR INDICA QUE EL EXPEDIENTE SE ENCUENTRA EN REVISIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIGEN: JULIANA NUÑEZ: DESTINO LAURA ORTEGON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/05/2025: REASIGNADO A LA ASESORA LAURA ORTEGON
+04/04/2025 SE ALLEGARON LAS DECLARACIONES EXTRA JUICIO REMITIDAS POR EL SEÑOR FELIX ALEJANDRO GUTIERREZ VEGA
+26/02/2025 RECIBIDAS LAS COMUNICACIONES DEL AUTO 022
+07/04/2025 SIGUEN PENDIENTES LAS COMUNICACIONES DEL AUTO 022
+1/04/2025 SIGUEN PENDIENTES LAS COMUNICACIONES DEL AUTO 022
+17/03/2025 SIGUE EN COMUNICACIOES DEL AUTO 022 DEL 24 DE FEBRERO DE 2025 
+06/03/2025 EN COMUNICACIOES DEL AUTO 022 DEL 24 DE FEBRERO DE 2025 
+25/02/2025 SE COMUNICÓ EL AUTO 022 DEL 24 DE FEBRERO DE 2025 
+20/02/2025 SE PROFIRIO EL AUTO 017 Y SE NOFITICÓ EL DÍA 17/02/2025
+06/02/2025 - A LA ESPERA DECISIÓN DEL PARTIDO CAMBIO RADICAL 
+A LA ESPERA DECISIÓN DEL PARTIDO CAMBIO RADICAL </t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LAURA ORTEGON
+28/04/2025 SE REALIZA NUEVO AUTO QUE EXHORTA EN REVISIÓN DE SHANNERY
+21/04/2025 EL REPRESENTANTE LEGAL ALLEGA PARCIALMENTE LO SOLICITADO POR AUTO 032
+07/04/2025 SE REALIZO AUTO 032 DEL 2 DE ABRIL QUE EXHORTA AL PARTIDO - SE ENVIA PARA SU DEBIDA FIRMA POR PARTE DEL PRESIDENTE EL 2 DE ABRIL DE 2025 
+27/03/2025 REALIZACIÓN DE AUTO DE INSTAR
+17/03/2025 UNA VEZ ENVIEN LA INFORMACION SE PROCEDE A INSCRIBIR LOS CANDIDATOS O A NEGAR LA INSCRIPCIÓN
+06/03/2025 SIGUE EN REVISIÓN AUTO
+27/02/2025 AUTO ENVIADO A SHAN EL 25 DE FEBRERO
+20/02/2025 ESTA EN REVISIÓN OTRO AUTO QUE DECRETA PRUEBAS SOLICITANDOLE AL PARTIDO DE LA U DOCUMENTOS PARA LA INSCRIPCIÓN DE DIRECTIVOS DEL DIRECTORIO DEPARTAMENTAL DEL VALLE DEL CAUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIGEN: ANDREA TOBAR: DESTINO LAURA ORTEGON </t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
+28/04/2025 A LA ESPERA DE COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>ORIGEN: ANDREA TOBAR DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
+28/04/2025 EN ESPERA DE COMUNICACIONES PARA INICIAR AUTO DE ALEGATOS
+07/04/2025 EN ESPERA DE SU DEBIDA NOTIFICACION
+27/03/2025 SE REALIZA FORMULACIÓN DE CARGOS EN CONTRA DEL EXCANDIDATO, SE RADICO EN SALA EL 20 DE MARZO 
+14/03/2025 EN PROCESO DE REALIZACION RESOLUCION DE FORMULACION DE CARGOS AL EX GERENTE DE CAMPAÑA 
+06/03/2025 EN ESPERA DE TERMINO PARA REALIZAR AUTO DE ALEGATOS (10/03/2025)
+27/02/2025 - EN ESPERA DEL TERMINO PARA INICIAR AUTO DE ALEGATOS DE CONCLUSIÓN. 
+21/02/2025 - EN ESPERA DE QUE ALLEGUEN DESCARGOS
+13/02/2024 - EN ESPERA DE COMUNICACIONES 
+04/02/2025 A LA ESPERA DE COMUNICACIONES
+23/01/2025 EN ESPERA DE COMUNICACIÓN
+15/01/2025 PONENCIA PARA RADICAR EN SALA 
+PENDIENTE EN NOTIFICACION</t>
+  </si>
+  <si>
+    <t>ORIGEN: GÉNESIS CUELLO DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMISIÓN DE RESOLUCIÓN NO. 030 DE 2025 POR MEDIO DE LA CUAL SE ORDENA CONFORMACIÓN DE UNA DIRECCIÓN DEPARTAMENTAL, Y COMITÉ EJECUTIVO DEPARTAMENTAL DEL DEPARTAMENTO DE SANTANDER DEL PARTIDO DEMÓCRATA COLOMBIANA </t>
+  </si>
+  <si>
+    <t>PEDRO ADÁN TORRES PEREZ</t>
+  </si>
+  <si>
+    <t>15/05/2025 RECIBIDO POR LA ASESORA ANYI AGURRE</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1422,6 +1381,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -1477,7 +1442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1538,6 +1503,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1842,241 +1816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="66.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46733</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,269 +1881,322 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>285</v>
+      <c r="C2" s="9">
+        <v>45086</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="9">
+        <v>46164</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="I2" s="9">
-        <v>46535</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="9">
+        <v>45761</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45070</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9">
+        <v>46166</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46992</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>145</v>
+      <c r="N3" s="6">
+        <v>45761</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45691</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>301</v>
+      <c r="C4" s="9">
+        <v>45684</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46710</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45722</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="N4" s="5">
+        <v>45792</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45685</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46804</v>
-      </c>
-      <c r="J4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45541</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="9">
+        <v>46636</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45705</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="N5" s="9">
+        <v>45792</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45100</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="9">
+        <v>46172</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45708</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="N6" s="9">
+        <v>45792</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45776</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9">
-        <v>45776</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="N5" s="9">
-        <v>45776</v>
-      </c>
-      <c r="O5" s="9">
-        <v>45714</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+    <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45791</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45417</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45782</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45783</v>
-      </c>
-      <c r="O6" s="6">
-        <v>45714</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45792</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N7" s="9">
+        <v>45792</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -2475,43 +2272,43 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="13">
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="13">
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2520,10 +2317,10 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2532,11 +2329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,109 +2395,109 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9">
-        <v>45086</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="9">
-        <v>46164</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="9">
-        <v>45761</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="N2" s="6">
-        <v>45791</v>
-      </c>
-      <c r="O2" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9">
-        <v>45070</v>
+      <c r="C3" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="9">
+        <v>45790</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46166</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45761</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2709,342 +2506,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45790</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="9">
-        <v>45790</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46172</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="408" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="5">
-        <v>46710</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="5">
-        <v>46257</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -3112,467 +2573,467 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="9">
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="9">
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="9">
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="N7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C10" s="19">
         <v>45782</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="19">
         <v>45789</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="N10" s="5">
         <v>45789</v>
@@ -3581,10 +3042,10 @@
         <v>45789</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3592,12 +3053,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,214 +3121,55 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46315</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46549</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46636</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3875,12 +3177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,110 +3243,269 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45466</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
+      <c r="C2" s="23">
+        <v>45264</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="23">
+        <v>46315</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="23">
+        <v>45735</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="N2" s="9">
+        <v>45792</v>
+      </c>
+      <c r="O2" s="23">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>238</v>
+      <c r="A3" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="C3" s="24">
+        <v>45653</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="24">
+        <v>46549</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="24">
+        <v>45712</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N3" s="9">
+        <v>45792</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45466</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>32</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="6">
+        <v>45466</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45673</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45755</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24">
+        <v>45665</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="24">
+        <v>45700</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45755</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45684</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="N6" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45688</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4052,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -4120,108 +3581,108 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4229,12 +3690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,162 +3757,162 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>261</v>
+      <c r="A2" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="5">
+        <v>229</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43999</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="6">
         <v>44967</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>267</v>
+      <c r="J2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="6">
+        <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N2" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+        <v>45791</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45266</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="5">
+        <v>46232</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45693</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="9">
-        <v>46232</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="C4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6">
         <v>45790</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>56</v>
+      <c r="J4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N4" s="6">
-        <v>45776</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>45761</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +3920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4527,7 +3988,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -4536,34 +3997,34 @@
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="13">
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -4572,10 +4033,505 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45440</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46535</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5">
+        <v>46992</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45784</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45715</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46804</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45761</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45713</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45417</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45786</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45714</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45776</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45786</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="N6" s="9">
+        <v>45791</v>
+      </c>
+      <c r="O6" s="9">
+        <v>45714</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45775</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45775</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45638</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5">
+        <v>46733</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O8" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45161</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5">
+        <v>46257</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="5">
+        <v>45370</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C19DD-71F7-4622-A7E6-0F1A52647703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB5BE9-832C-40D8-AD92-7AC27944575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="277">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -95,34 +95,12 @@
     <t>EXPEDIENTES RE ASIGNADOS</t>
   </si>
   <si>
-    <t>CNE-E-DG-2024-021586</t>
-  </si>
-  <si>
     <t>LORDUY</t>
   </si>
   <si>
-    <t>PRESUNTA VULNERACIÓN DEL ART. 23 DE LA LEY 1475 DE 2011, LIMITES A LA FINANCIACIÓN PRIVADA</t>
-  </si>
-  <si>
-    <t>ARAUCA</t>
-  </si>
-  <si>
-    <t>SARAVENA</t>
-  </si>
-  <si>
-    <t>ESTEBAN FERNANDO BURBANO DUQUE</t>
-  </si>
-  <si>
     <t>FINANCIACIÓN</t>
   </si>
   <si>
-    <t>01/04/2025 RESOLUCION No 01440 APROBADA EN SALA EL 1 DE ABRIL 2025
-10/02/2025 - OFICIO N° 038 - SE REMITE COPIA DEL EXPEDIENTE AL MINISTERIO PUBLICO 
-22/01/2025   RESOLUCIÓN No. 00197 - APROBADA EN SALA 
-07/01/2025 - REMITO FORMULACIÓN DE CARGOS A REVISIÓN
-13/12/2024 RECIBIDO</t>
-  </si>
-  <si>
     <t>DESPACHO</t>
   </si>
   <si>
@@ -153,26 +131,13 @@
     <t>ART. 25</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-006767</t>
-  </si>
-  <si>
     <t>ECHEVERRY</t>
   </si>
   <si>
     <t>11/04/2025</t>
   </si>
   <si>
-    <t>REGISTRO DE NUEVOS MIEMBROS DEL CONSEJO DE CONTROL DE ETICA DEL PARTIDO COLOMBIA RENACIENTE</t>
-  </si>
-  <si>
-    <t>JHON ARLEY MURILLO BENITEZ</t>
-  </si>
-  <si>
     <t>REGISTRO DE DIRECTIVOS</t>
-  </si>
-  <si>
-    <t>28/04/2025 AUTO No 037
-11/04/2025 RECIBIDO</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-001116</t>
@@ -383,23 +348,6 @@
     <t>22/04/2025</t>
   </si>
   <si>
-    <t>CNE-E-DG-2023-021293</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD PROPAGANDA ELECTORAL</t>
-  </si>
-  <si>
-    <t>NANCY OLIVIA BURBAN</t>
-  </si>
-  <si>
-    <t>19/03/2025 RECIBIDO POR LA ASESORA GENESIS CUELLO</t>
-  </si>
-  <si>
-    <t>28/04/2024 PROYECTANDO RECURSO INTERPUESTO A LA RESOLUCIÓN SANCIÓN
-07/04/2025 EN ESTUDIO DE EXPEDIENTE
-31/03/2025 ASESOR INDICA QUE EL EXPEDIENTE ESTA EN REVISIÓN</t>
-  </si>
-  <si>
     <t>2021-000146 - 2021-000147</t>
   </si>
   <si>
@@ -935,89 +883,7 @@
     <t>RUBÉN MARTINEZ</t>
   </si>
   <si>
-    <t>STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2024-012113</t>
-  </si>
-  <si>
-    <t>ACCIÓN DE PROTECCION DE DERECHOS DE OPOSICIÓN CONTRA ALCALDIA DE ACHÍ- BOLIVAR POR POSIBLE VULNERCIÓN AL ARTICULO 16 DE LA LEY 1909 DE 2018</t>
-  </si>
-  <si>
-    <t>BOLIVAR</t>
-  </si>
-  <si>
-    <t>ACHÍ</t>
-  </si>
-  <si>
-    <t>RAMON GUSTAVO NIEBLES MERCADO</t>
-  </si>
-  <si>
     <t>ESTATUTO DE LA OPOSICION</t>
-  </si>
-  <si>
-    <t>26/02/2025 AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS DE CONCLUSIÓN A LA ALCALDÍA DE ACHÍ- BOLÍVAR.
-12/12/2024 RESOLUCIÓN NO. 6620, POR MEDIO DE LA CUAL SE FORMULA CARGOS A LA ALCALDÍA DE ACHÍ BOLÍVAR 
-25/10/24 PONENCIA NO. 16077 RADICADA EN SALA POR MEDIO DE LA CUAL SE FORMULA CARGOS A LA ALCALDÍA DE ACHÍ BOLÍVAR (EN CONJUECES).
-24/07/24 RESOLUCIÓN NO. 03881 POR MEDIO DE LA CUAL SE AMPARA EL DERECHO DE OPOSICIÓN. APROBADA EN SALA DEL 24/07/24. FINALIZA TÉRMINO PARA ALLEGAR PRUEBAS DE LO ORDENADO EL 17/09.
-16/07/24 AUTO NO. 097 POR MEDIO DEL CUAL SE DECRETA UNA PRUEBA.
-30/05/24 AUTO NO. 074 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO.</t>
-  </si>
-  <si>
-    <t>28/04/2025 PONENCIA RADICADA EN SALA POR MEDIO DEL CUAL SE SANCIONA A LA ALCALDIA
-03/04/2025 PONENCIA RADICADA EN SALA POR MEDIO DE LA CUAL SE SANCIONA LA ALCALDIA
-28/03/2025 PONENCIA DE SANCIÓN EN REVISIÓN DEL PRIMER FILTRO CON FECHA DEL 28
-14/03/2025 PENDIENTE PROYECTAR DECISIÓN 
-06/03/2025 EN VENCIMIENTO DETÉRMINOS PARA PRESENTAR ALEGATOS EL 13/03/2025.
-27/02/2025 VENCE TÉRMINOS PARA PRESENTAR ALEGATOS EL 13/03/2025.
-20/02/2025 SE VENCIÓ TÉRMINOS PARA ALLEGAR DESCARGOS EL 19/02/2025. PENDIENTE PROYECTAR AUTO DE ALEGATOS
-VENCE TÉRMINO PARA ALLEGAR DESCARGOS EL DÍA 19/02/2025</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-003389</t>
-  </si>
-  <si>
-    <t>DENUNCIA CONTRA LA CAMPAÑA DEL ACTUAL ALCANDE JOHN GERMAN RAMIREZ HERNANDEZ, POR SUPUESTO APORTE DE FINANCIACIÓN</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>SAN MARTIN DE LOS LLANOS</t>
-  </si>
-  <si>
-    <t>CAMILO MORENO</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-003216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEJA SOBRE LA FINANCIACIÓN DE LA CAMPAÑA COMO CANDIDATO, DEL ACTUAL ALCALDE DEL MUNICIPIO DE COTA - CUNDINAMARCA, SEÑOR NESTOR ORLANDO BALSERO GARCÍA </t>
-  </si>
-  <si>
-    <t>COTA</t>
-  </si>
-  <si>
-    <t>JAIME ALCIDES RODRIGUEZ PEÑA</t>
-  </si>
-  <si>
-    <t>02/04/2025 AUTO No 030 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE ABRE INDAGACION PREMILINAR
-19/03/2025 RECIBIDO POR LA ASESORA STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>ORIGEN: JUAN DAVID OSPINA DESTINO: STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-007754</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE RECONOCIMIENTO DE AGRUPACIÓN POLÍTICA MOVIMIENTO POLÍTICO SOCIAL COMUNAL</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>GUSTAVO GARCIA FIGUEROA Y JENNY LILIANA PULIDO VELASQUEZ</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-002441</t>
@@ -1054,21 +920,6 @@
   </si>
   <si>
     <t>SHANNERY CHAPARRO</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-008157</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE PRÓRROGA PARA LA RECOLECCIÓN DE FIRMAS DE LA CONSULTA POPULAR DE ORIGEN CIUDADANO DENOMINADA "MUNICIPIO DE ALCALÁ EN EL ÁREA METROPOLITANA CENTRO OCCIDENTE AMCO</t>
-  </si>
-  <si>
-    <t>ALCALÁ</t>
-  </si>
-  <si>
-    <t>CARLOS ALCIDES ROJAS PEREZ</t>
-  </si>
-  <si>
-    <t>MECANISMOS DE PARTICIPACIÓN CIUDADANA</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-008553</t>
@@ -1111,42 +962,6 @@
 20/02/2025 EN ESPERA QUE CUMPLA EL TERMINO PARA LA PRESENTACIÓN DE DESCARGO
 05/02/2025 SE ENVIO A RADICAR A SALA 
 31/01/2025 LA PROYECCION DEL ACTO ADMINISTRATIVO QUE ABRE INVESTIGACIÓN Y FORMULA CARGOS  ESTA  EN REVISION DE SHAN </t>
-  </si>
-  <si>
-    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
-04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
-27/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS (PENDIENTE COMUNICACIONES)
-28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
-07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
-28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
-06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
-  </si>
-  <si>
-    <t>14/05/2025 AUTO REITERA EN REVISIÓN DE MIGUEL
-15/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
-07/04/2025 PENDIENTE DE COMUNICACIONES
-28/03/2025 AUTO AVOCA EN REVISIÓN DE PRIMER FILTRO EL 20 DE MARZO DE 2025
-17/03/2025 EN PROYECCIÓN AUTO QUE AVOCA
-06/03/2025 ASESOR INDICA QUE EL EXPEDIENTE SIGUE EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO</t>
-  </si>
-  <si>
-    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO
-05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
-  </si>
-  <si>
-    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
-29/04/2025 RECIBIDO POR LA ASESORA STPHANIE GUERRERO</t>
-  </si>
-  <si>
-    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
-29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
   </si>
   <si>
     <t>14/05/2025 AUN ESTA EN TRÁMITE DE ARCHIVO
@@ -1251,31 +1066,6 @@
     <t xml:space="preserve">ORIGEN: ANDREA TOBAR: DESTINO LAURA ORTEGON </t>
   </si>
   <si>
-    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
-28/04/2025 A LA ESPERA DE COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>ORIGEN: ANDREA TOBAR DESTINO: STEPHANI GUERRERO</t>
-  </si>
-  <si>
-    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
-28/04/2025 EN ESPERA DE COMUNICACIONES PARA INICIAR AUTO DE ALEGATOS
-07/04/2025 EN ESPERA DE SU DEBIDA NOTIFICACION
-27/03/2025 SE REALIZA FORMULACIÓN DE CARGOS EN CONTRA DEL EXCANDIDATO, SE RADICO EN SALA EL 20 DE MARZO 
-14/03/2025 EN PROCESO DE REALIZACION RESOLUCION DE FORMULACION DE CARGOS AL EX GERENTE DE CAMPAÑA 
-06/03/2025 EN ESPERA DE TERMINO PARA REALIZAR AUTO DE ALEGATOS (10/03/2025)
-27/02/2025 - EN ESPERA DEL TERMINO PARA INICIAR AUTO DE ALEGATOS DE CONCLUSIÓN. 
-21/02/2025 - EN ESPERA DE QUE ALLEGUEN DESCARGOS
-13/02/2024 - EN ESPERA DE COMUNICACIONES 
-04/02/2025 A LA ESPERA DE COMUNICACIONES
-23/01/2025 EN ESPERA DE COMUNICACIÓN
-15/01/2025 PONENCIA PARA RADICAR EN SALA 
-PENDIENTE EN NOTIFICACION</t>
-  </si>
-  <si>
-    <t>ORIGEN: GÉNESIS CUELLO DESTINO: STEPHANI GUERRERO</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-008714</t>
   </si>
   <si>
@@ -1286,6 +1076,77 @@
   </si>
   <si>
     <t>15/05/2025 RECIBIDO POR LA ASESORA ANYI AGURRE</t>
+  </si>
+  <si>
+    <t>16/05/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+07/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+28/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+18/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
+06/03/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
+21/02/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
+22/01/2025 EL FONDO NACIONAL DE FINANCIACIÓN DE PARTIDOS POLÍTICOS, REMITIÓ RESPUESTA ACERCA DE LO SOLICITADO A TRAVÉS DEL AUTO NO.133 DE 2025. (EN ESPERA DE INDICACIONES DEL MAGISTRADO)
+16/01/2024 SE REMITIÓ OFICIO NO. 006 DE REITERACIÓN PARA FIRMA DEL MAGISTRADO CÉSAR LORDUY
+SHANNERY INDICO REALIZAR OFICIO DE REITERACIÓN</t>
+  </si>
+  <si>
+    <t>16/05/2025 PENDIENTE DE COMUNICACIONES
+07/04/2025 PENDIENTE DE COMUNICACIONES
+28/03/2025 PENDIENTE DE COMUNICACIONES
+18/03/2025 PONENCIA RADICADA PARA DISCUSIÓN EL 20 DE MARZO DE 2025
+06/03/2025 SIGUE PENDIENTE PONENCIA EN PROYECCIÓN
+20/02/2025 PENDIENTE DE PROYECCIÓN</t>
+  </si>
+  <si>
+    <t>16/05/2025 PONENCIA DE SANCION EN REVISIÓN DE SHANN
+28/04/2025 PROYECTANDO RESOLUCIÓN
+07/04/2025 AUN SE ESTA PROYECTANDO LA RESOLUCION
+28/03/2025 PROYECTAR RESOLUCION
+18/03/2025 ESTA EN ESPERA DE INFORME DEL CONTADOR FEISAL
+06/03/2025 EN REVISIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN ESPERA DE TÉRMINOS PARA ARCHIVO
+28/04/2025 EN ESPERA DE TERMINOS PARA ARCHIVO
+07/04/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+28/03/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+18/03/2025 EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
+06/03/2025 PONENCIA RESUELVE RECURSO CONTRA RESOLUCION No 00173 DE 2025 EN REVISIÓN DE SHANNERY
+ENVIADO A REVISIÓN A LAURA ORTEGON EL DÍA 20/02/2025
+13/02/2025 EN PROYECCION DE RESOLUCIÓN QUE RESUELVE RECURSOS DE  REPOSICIÓN INTERPUESTOS
+06/02/2025 - EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN DE  RECURSOS DE REPOSICIÓN.
+27/01/2025 EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN RE RECURSOS DE REPOSICIÓN.
+8/01/2025 SE RADICO PONENCIA QUE RESUELVE RECURSO DE REPOSICIÓN CONTRA LA RESOLUCIÓN QUE RECHAZO POR EXTEMPORANEO LAS SOLICITUDES DE IMPUGNACIÓN DE LOS SEÑORES JULIO CARRASCAL, TEMILDA VANEGAS
+8/01/2025 SE REMITIÓ A REVISIÓN DE LAURA ORTEGON PONENCIA QUE RESUELVE EL RECURSO DE REPOSICIÓN INTERPUESTO CONTRA LA RESOLUCIÓN QUE ACEPTO EL DESISTIMIENTO DEL SEÑOR CARLOS ENRIQUE MC'NISH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN ESPERA DE RECURSO DE REPOSICIÓN
+24/04/2025 EN ESPERA DE NOTIFICACION
+07/04/2025 APLAZADA EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACION
+28/03/2025 ESTA EN DISCUSIÓN PARA SALA EL 1 DE ABRIL
+18/03/2025 RADICADA PONENCIA QUE DA POR TERMINADO
+06/03/2025 EN PROYECCIÓN
+06/02/2025 - AUTO DE REITERACIÒN EN REVISIÓN DE SHANNERY </t>
+  </si>
+  <si>
+    <t>16/05/2025 EN ESPERA DE NOTIFICACIONES DE RESOLUCION N° 1439
+22/04/2025 EN ESPERA DE NOTIFICACIONES
+07/04/2025 EN ESPERA DE TERMINOS
+28/03/2025 PONENCIA DE APERTURA VA A SER DISCUTIDA EN SALA EL 1 DE ABRIL</t>
+  </si>
+  <si>
+    <t>16/05/2025 EN REVISIÓN DE SHANN PONENCIA DE SANCIÓN A FIRMA ENCUESTADORA
+28/04/2025 PENDIENTE RESOLUCIÓN SI DECIDE SANCIONAR
+07/04/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
+31/03/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
+17/03/2025 PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/05/2025 EN REVISION DE SHANN RESOLUCION QUE AVOCA CONOCIMIENTO
+28/04/2025 EN REVISIÓN </t>
+  </si>
+  <si>
+    <t>15/05/2025 AUTO N° 046 AVOCA CONOCIMIENTO
+12/05/ 2025 RECIBIDO POR EL ASESOR</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1437,12 +1298,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1484,14 +1386,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1512,6 +1408,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+    <sheetView topLeftCell="I6" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:Q7"/>
     </sheetView>
   </sheetViews>
@@ -1883,43 +1797,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <v>45086</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I2" s="9">
         <v>46164</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="9">
         <v>45761</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -1928,51 +1842,51 @@
         <v>45691</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
         <v>45070</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" s="9">
         <v>46166</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="9">
         <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="N3" s="6">
         <v>45761</v>
@@ -1981,51 +1895,51 @@
         <v>45691</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
         <v>45684</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I4" s="9">
         <v>46710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="9">
         <v>45722</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="N4" s="5">
         <v>45792</v>
@@ -2034,51 +1948,51 @@
         <v>45685</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9">
         <v>45541</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L5" s="9">
         <v>45705</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="N5" s="9">
         <v>45792</v>
@@ -2087,51 +2001,51 @@
         <v>45691</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>45100</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I6" s="9">
         <v>46172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L6" s="9">
         <v>45708</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="N6" s="9">
         <v>45792</v>
@@ -2140,51 +2054,51 @@
         <v>45691</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9">
         <v>45791</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L7" s="9">
         <v>45792</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="N7" s="9">
         <v>45792</v>
@@ -2193,10 +2107,10 @@
         <v>45691</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2272,43 +2186,43 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="13">
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="13">
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2317,10 +2231,10 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>29</v>
+        <v>242</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2396,108 +2310,108 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I3" s="9">
         <v>45790</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2573,467 +2487,467 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I2" s="5">
         <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="9">
         <v>45701</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I4" s="9">
         <v>46174</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I5" s="9">
         <v>46145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I6" s="9">
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I7" s="9">
         <v>46783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I8" s="9">
         <v>46342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="A10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="17">
         <v>45782</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="D10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="17">
         <v>45789</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>289</v>
+      <c r="M10" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="N10" s="5">
         <v>45789</v>
@@ -3041,11 +2955,11 @@
       <c r="O10" s="5">
         <v>45789</v>
       </c>
-      <c r="P10" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>32</v>
+      <c r="P10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3121,55 +3035,55 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3244,97 +3158,97 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="A2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21">
         <v>45264</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="D2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="21">
         <v>46315</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="23">
+      <c r="J2" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="21">
         <v>45735</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>309</v>
+      <c r="M2" s="20" t="s">
+        <v>259</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="21">
         <v>45691</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>310</v>
+      <c r="P2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="24">
+        <v>17</v>
+      </c>
+      <c r="C3" s="22">
         <v>45653</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="24">
+        <v>86</v>
+      </c>
+      <c r="I3" s="22">
         <v>46549</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="24">
+        <v>19</v>
+      </c>
+      <c r="L3" s="22">
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="N3" s="9">
         <v>45792</v>
@@ -3343,51 +3257,51 @@
         <v>45691</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>310</v>
+        <v>190</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>45466</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I4" s="6">
         <v>45466</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="6">
         <v>45673</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N4" s="5">
         <v>45755</v>
@@ -3396,51 +3310,51 @@
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="24">
+        <v>17</v>
+      </c>
+      <c r="C5" s="22">
         <v>45665</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>32</v>
+        <v>195</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="24">
+        <v>41</v>
+      </c>
+      <c r="L5" s="22">
         <v>45700</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="N5" s="5">
         <v>45755</v>
@@ -3449,51 +3363,51 @@
         <v>45691</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>45684</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9">
         <v>46779</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L6" s="9">
         <v>45735</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="N6" s="6">
         <v>45792</v>
@@ -3502,10 +3416,10 @@
         <v>45688</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>313</v>
+        <v>190</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3581,108 +3495,108 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3758,43 +3672,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C2" s="6">
         <v>43999</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I2" s="6">
         <v>44967</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L2" s="6">
         <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -3803,51 +3717,51 @@
         <v>45691</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5">
         <v>45266</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I3" s="5">
         <v>46232</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L3" s="5">
         <v>45693</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="N3" s="6">
         <v>45791</v>
@@ -3856,51 +3770,51 @@
         <v>45691</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>44861</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I4" s="6">
         <v>45790</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" s="6">
         <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -3909,10 +3823,10 @@
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3988,43 +3902,43 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13">
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L2" s="13">
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -4033,10 +3947,10 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4046,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,428 +4024,481 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25">
+        <v>44203</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="25">
+        <v>45298</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="25">
+        <v>45698</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O2" s="26">
+        <v>45666</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="25">
+        <v>44627</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5">
-        <v>45440</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46535</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="I3" s="25">
+        <v>45701</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="25">
+        <v>45744</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O3" s="26">
+        <v>45708</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="25">
+        <v>45266</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="25">
+        <v>46174</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="25">
         <v>45714</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="M4" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O4" s="26">
+        <v>45715</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45049</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="5">
+        <v>46145</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45734</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45518</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="9">
+        <v>46613</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45771</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45688</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5">
+        <v>46783</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N7" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45744</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17">
+        <v>45246</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="17">
+        <v>46342</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="17">
+        <v>45735</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O8" s="21">
+        <v>45733</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="17">
+        <v>45769</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="17">
+        <v>45769</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="N9" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O9" s="5">
         <v>45775</v>
       </c>
-      <c r="O2" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5">
-        <v>45715</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5">
-        <v>46992</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45784</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45791</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45715</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9">
-        <v>45709</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46804</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45761</v>
-      </c>
-      <c r="O4" s="6">
-        <v>45713</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45417</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="9">
-        <v>45786</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="N5" s="6">
-        <v>45791</v>
-      </c>
-      <c r="O5" s="6">
-        <v>45714</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45776</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45786</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N6" s="9">
-        <v>45791</v>
-      </c>
-      <c r="O6" s="9">
-        <v>45714</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="9">
-        <v>45758</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="5">
-        <v>45775</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="P9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="17">
+        <v>45782</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="17">
         <v>45792</v>
       </c>
-      <c r="O7" s="6">
-        <v>45775</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45638</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5">
-        <v>46733</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="5">
-        <v>45748</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M10" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="N10" s="5">
         <v>45792</v>
       </c>
-      <c r="O8" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45161</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5">
-        <v>46257</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5">
-        <v>45370</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="6">
-        <v>45792</v>
-      </c>
-      <c r="O9" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>317</v>
+      <c r="O10" s="5">
+        <v>45789</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB5BE9-832C-40D8-AD92-7AC27944575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEEC15-6E1B-425B-9A58-593595045BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="251">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>DESPACHO</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
   </si>
   <si>
     <t>28/04/2025</t>
@@ -156,12 +153,6 @@
 26/02/2025 POR MEDIO DEL CUAL SE LE SOLICITO AL PARTIDO DE LA U SE REMITE A UNA INFORMACION IMPORTANTE PARA PROCEDER A LA INSCRIPCIÓN DE LOS DIRECTIVOS DEPARTAMENTALES DEL VALLE DEL CAUCA
 06/02/2025 AUTO No 014 POR MEDIO DE LA CUAL SE LE SOLICITAN LAS PRUEBAS A DIRECCION DE INSPECCIÓN Y VIGILANCIA
 28/01/2025 - RECIBIDO POR EL ASESOR JUAN DAVID</t>
-  </si>
-  <si>
-    <t>19/03/2025</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
   </si>
   <si>
     <t>04/03/2025</t>
@@ -305,12 +296,6 @@
 20/01/2025 - RECIBIDO</t>
   </si>
   <si>
-    <t>20/02/2025</t>
-  </si>
-  <si>
-    <t>06/12/2023</t>
-  </si>
-  <si>
     <t>OFICIO</t>
   </si>
   <si>
@@ -318,9 +303,6 @@
   </si>
   <si>
     <t>26/02/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t>26/02/2025</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-001275</t>
@@ -345,13 +327,7 @@
 28/02/2025 RECIBIDO</t>
   </si>
   <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
     <t>2021-000146 - 2021-000147</t>
-  </si>
-  <si>
-    <t>07/01/2021</t>
   </si>
   <si>
     <t>SOLICITUD DE LIQUIDACION DE LA ORGANIZACIÓN POLITICA (OPCION CIUDADANA)</t>
@@ -368,23 +344,6 @@
 19/11/2024 EL AUTO 133 SE DEJA SIN DEFECTOS DESIGNACIÓN DEL LIQUIDADOR</t>
   </si>
   <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-07/04/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-28/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-18/03/2025 EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACIÓN (SE REMITIÓ OFICIO AL PARTIDO OPCIÓN CIUDADANA)
-06/03/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
-21/02/2025 EN ESPERA DE CUMPLIMIENTO DE TERMINOS
-22/01/2025 EL FONDO NACIONAL DE FINANCIACIÓN DE PARTIDOS POLÍTICOS, REMITIÓ RESPUESTA ACERCA DE LO SOLICITADO A TRAVÉS DEL AUTO NO.133 DE 2025. (EN ESPERA DE INDICACIONES DEL MAGISTRADO)
-16/01/2024 SE REMITIÓ OFICIO NO. 006 DE REITERACIÓN PARA FIRMA DEL MAGISTRADO CÉSAR LORDUY
-SHANNERY INDICO REALIZAR OFICIO DE REITERACIÓN</t>
-  </si>
-  <si>
-    <t>09/01/2025</t>
-  </si>
-  <si>
     <t>JHON TRUJILLO</t>
   </si>
   <si>
@@ -392,9 +351,6 @@
   </si>
   <si>
     <t>CNE-E-DG-2022-006531</t>
-  </si>
-  <si>
-    <t>07/03/2022</t>
   </si>
   <si>
     <t>DENUNCIA POR IRREGULARIDAD POR LA FINANCIACION DE CAMPAÑA EN CONTRA DE LA SEÑORA MAYRA ALEJANDRA GAONA PINZÓN, CANDIDATO A LA CAMARA TRANSITORIA DE PAZ</t>
@@ -407,17 +363,6 @@
 20/02/2025 VIENE DERROTADO DEL DESPACHO DEL MAGISTRADO ALFONSO CAMPO</t>
   </si>
   <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025 PENDIENTE DE COMUNICACIONES
-07/04/2025 PENDIENTE DE COMUNICACIONES
-28/03/2025 PENDIENTE DE COMUNICACIONES
-18/03/2025 PONENCIA RADICADA PARA DISCUSIÓN EL 20 DE MARZO DE 2025
-06/03/2025 SIGUE PENDIENTE PONENCIA EN PROYECCIÓN
-20/02/2025 PENDIENTE DE PROYECCIÓN</t>
-  </si>
-  <si>
     <t>DERROTADO DEL MAGISTRADO ALFONSO CAMPO ENCARGADO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -427,23 +372,10 @@
     <t>PRESUNTA VULNERACIÓN AL ARTÍCULO 18 DE LA LEY 1475 DE 2011, UNA VEZ REVISADO INFORME DECLARACIÓN DE PATRIMONIO, INGRESOS Y GASTOS DE FUNCIONAMIENTO VIGENCIA 2022 DEL PARTIDO COLOMBIA RENACIENTE</t>
   </si>
   <si>
-    <t>28/04/2025 PROYECTANDO RESOLUCIÓN
-07/04/2025 AUN SE ESTA PROYECTANDO LA RESOLUCION
-28/03/2025 PROYECTAR RESOLUCION
-18/03/2025 ESTA EN ESPERA DE INFORME DEL CONTADOR FEISAL
-06/03/2025 EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>27/02/2025</t>
-  </si>
-  <si>
     <t>ORIGEN: CAMILA REYES DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-010332</t>
-  </si>
-  <si>
-    <t>03/05/2023</t>
   </si>
   <si>
     <t>RECONOMIENTO Y INSCRIPCION DEL NUEVO PRESIDENTE Y REPRESANTE LEGAL DEL PARTIDO ESPERANZA DEMÓCRATICA</t>
@@ -464,29 +396,10 @@
  28/11/2024 OFICIO N° 445 RESPUESTA MIGUEL ANGEL PEREZ GAMBOA</t>
   </si>
   <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 EN ESPERA DE TERMINOS PARA ARCHIVO
-07/04/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-28/03/2025 SIGUE EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-18/03/2025 EN ESPERA DE NOTIFICACION PARA POSTERIOR ARCHIVO
-06/03/2025 PONENCIA RESUELVE RECURSO CONTRA RESOLUCION No 00173 DE 2025 EN REVISIÓN DE SHANNERY
-ENVIADO A REVISIÓN A LAURA ORTEGON EL DÍA 20/02/2025
-13/02/2025 EN PROYECCION DE RESOLUCIÓN QUE RESUELVE RECURSOS DE  REPOSICIÓN INTERPUESTOS
-06/02/2025 - EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN DE  RECURSOS DE REPOSICIÓN.
-27/01/2025 EN ESPERA DE NOTIFICACIONES Y TÉRMINO DE PARA LA PRESENTACIÓN RE RECURSOS DE REPOSICIÓN.
-8/01/2025 SE RADICO PONENCIA QUE RESUELVE RECURSO DE REPOSICIÓN CONTRA LA RESOLUCIÓN QUE RECHAZO POR EXTEMPORANEO LAS SOLICITUDES DE IMPUGNACIÓN DE LOS SEÑORES JULIO CARRASCAL, TEMILDA VANEGAS
-8/01/2025 SE REMITIÓ A REVISIÓN DE LAURA ORTEGON PONENCIA QUE RESUELVE EL RECURSO DE REPOSICIÓN INTERPUESTO CONTRA LA RESOLUCIÓN QUE ACEPTO EL DESISTIMIENTO DEL SEÑOR CARLOS ENRIQUE MC'NISH </t>
-  </si>
-  <si>
     <t>ORIGEN: DORA GARCIA DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-016640</t>
-  </si>
-  <si>
-    <t>14/08/2024</t>
   </si>
   <si>
     <t>SOLICITUD DE INVESTIGACIÓN POR FINANCIACIÓN DE LA CAMPAÑA AL CONCEJO DE PARATEBUENO - CUNDINAMARCA DEL CONCEJAL ELECTO, SEÑOR JULIO TORO, POR EL PARTIDO INDEPENDIENTES.</t>
@@ -507,14 +420,6 @@
     <t>24/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">24/04/2025 EN ESPERA DE NOTIFICACION
-07/04/2025 APLAZADA EN ESPERA RESPUESTA FONDO NACIONAL DE FINANCIACION
-28/03/2025 ESTA EN DISCUSIÓN PARA SALA EL 1 DE ABRIL
-18/03/2025 RADICADA PONENCIA QUE DA POR TERMINADO
-06/03/2025 EN PROYECCIÓN
-06/02/2025 - AUTO DE REITERACIÒN EN REVISIÓN DE SHANNERY </t>
-  </si>
-  <si>
     <t>ORIGEN: VANESSA ROSSELL - DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -537,11 +442,6 @@
 19/03/2025 RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
   </si>
   <si>
-    <t>22/04/2025 EN ESPERA DE NOTIFICACIONES
-07/04/2025 EN ESPERA DE TERMINOS
-28/03/2025 PONENCIA DE APERTURA VA A SER DISCUTIDA EN SALA EL 1 DE ABRIL</t>
-  </si>
-  <si>
     <t>ORIGEN: JUAN DAVID OSPINA DESTINO: JHON TRUJILLO</t>
   </si>
   <si>
@@ -570,15 +470,6 @@
 17/03/2025 EN ESPERA DE SANCIÓN</t>
   </si>
   <si>
-    <t>28/04/2025 PENDIENTE RESOLUCIÓN SI DECIDE SANCIONAR
-07/04/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
-31/03/2025 AUN SIGUE PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR
-17/03/2025 PENDIENTE PARA RESOLUCION SI DECIDE SANCIONAR</t>
-  </si>
-  <si>
-    <t>17/03/2025</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-007390</t>
   </si>
   <si>
@@ -595,9 +486,6 @@
   </si>
   <si>
     <t>22/04/2025 RECIBIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/04/2025 EN REVISIÓN </t>
   </si>
   <si>
     <t>CNE-E-DG-2022-022511 - SANTANDER</t>
@@ -929,9 +817,6 @@
   </si>
   <si>
     <t>DIEGO FABIAN CASTILLO QUINTERO</t>
-  </si>
-  <si>
-    <t>12/05/ 2025 RECIBIDO POR EL ASESOR</t>
   </si>
   <si>
     <t>14/04/2025AUTO No 034 -TRASLADO DE ALEGATOS PUBLICIDAD
@@ -1797,7 +1682,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -1806,25 +1691,25 @@
         <v>45086</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="9">
         <v>46164</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>19</v>
@@ -1833,7 +1718,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -1842,15 +1727,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>17</v>
@@ -1859,16 +1744,16 @@
         <v>45070</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>18</v>
@@ -1877,7 +1762,7 @@
         <v>46166</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
@@ -1886,7 +1771,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="N3" s="6">
         <v>45761</v>
@@ -1895,15 +1780,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>17</v>
@@ -1912,25 +1797,25 @@
         <v>45684</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I4" s="9">
         <v>46710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -1939,7 +1824,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="N4" s="5">
         <v>45792</v>
@@ -1948,15 +1833,15 @@
         <v>45685</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
@@ -1965,25 +1850,25 @@
         <v>45541</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="I5" s="9">
         <v>46636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -1992,7 +1877,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="N5" s="9">
         <v>45792</v>
@@ -2001,15 +1886,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -2018,25 +1903,25 @@
         <v>45100</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" s="9">
         <v>46172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -2045,7 +1930,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="N6" s="9">
         <v>45792</v>
@@ -2054,42 +1939,42 @@
         <v>45691</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9">
         <v>45791</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -2098,7 +1983,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="N7" s="9">
         <v>45792</v>
@@ -2107,10 +1992,10 @@
         <v>45691</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2186,34 +2071,34 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13">
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>19</v>
@@ -2222,7 +2107,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2231,10 +2116,10 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2310,108 +2195,108 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="9">
         <v>45790</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,238 +2371,238 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25">
+        <v>44203</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="25">
+        <v>45298</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="25">
+        <v>45698</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O2" s="26">
+        <v>45666</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="25">
+        <v>44627</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="25">
+        <v>45701</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="25">
+        <v>45744</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O3" s="26">
+        <v>45708</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="25">
+        <v>45266</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45298</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="H4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="25">
+        <v>46174</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="L4" s="25">
+        <v>45714</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O4" s="26">
+        <v>45715</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45049</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="I5" s="5">
+        <v>46145</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5">
+        <v>45734</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="9">
-        <v>45701</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46174</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="9">
-        <v>46145</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>123</v>
+      <c r="C6" s="9">
+        <v>45518</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>18</v>
@@ -2726,240 +2611,240 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="9">
+        <v>45771</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O6" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45688</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="5">
+        <v>46783</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45744</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17">
+        <v>45246</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="17">
+        <v>46342</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="17">
+        <v>45735</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="N8" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O8" s="21">
+        <v>45733</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="17">
+        <v>45769</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="H9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="I9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="9">
-        <v>46783</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="K9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="9">
-        <v>46342</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <v>45769</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="N9" s="5">
+        <v>45793</v>
+      </c>
+      <c r="O9" s="5">
+        <v>45775</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C10" s="17">
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="17">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N10" s="5">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="O10" s="5">
         <v>45789</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3035,55 +2920,55 @@
     </row>
     <row r="2" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="5">
         <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3044,7 @@
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>17</v>
@@ -3168,25 +3053,25 @@
         <v>45264</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="I2" s="21">
         <v>46315</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>19</v>
@@ -3195,7 +3080,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
@@ -3204,15 +3089,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
@@ -3221,25 +3106,25 @@
         <v>45653</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I3" s="22">
         <v>46549</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>19</v>
@@ -3248,7 +3133,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="N3" s="9">
         <v>45792</v>
@@ -3257,15 +3142,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>17</v>
@@ -3274,25 +3159,25 @@
         <v>45466</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="I4" s="6">
         <v>45466</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -3301,7 +3186,7 @@
         <v>45673</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="N4" s="5">
         <v>45755</v>
@@ -3310,15 +3195,15 @@
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
@@ -3327,34 +3212,34 @@
         <v>45665</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L5" s="22">
         <v>45700</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="N5" s="5">
         <v>45755</v>
@@ -3363,15 +3248,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -3380,25 +3265,25 @@
         <v>45684</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="9">
         <v>46779</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -3407,7 +3292,7 @@
         <v>45735</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="N6" s="6">
         <v>45792</v>
@@ -3416,10 +3301,10 @@
         <v>45688</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3495,108 +3380,108 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3672,43 +3557,43 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C2" s="6">
         <v>43999</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I2" s="6">
         <v>44967</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="6">
         <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -3717,15 +3602,15 @@
         <v>45691</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -3734,25 +3619,25 @@
         <v>45266</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="5">
         <v>46232</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>19</v>
@@ -3761,7 +3646,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="N3" s="6">
         <v>45791</v>
@@ -3770,15 +3655,15 @@
         <v>45691</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>17</v>
@@ -3787,25 +3672,25 @@
         <v>44861</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="I4" s="6">
         <v>45790</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -3814,7 +3699,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -3823,10 +3708,10 @@
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +3787,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
@@ -3911,25 +3796,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>19</v>
@@ -3938,7 +3823,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -3947,10 +3832,10 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3962,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,7 +3911,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>17</v>
@@ -4035,25 +3920,25 @@
         <v>44203</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I2" s="25">
         <v>45298</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>19</v>
@@ -4062,7 +3947,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -4071,15 +3956,15 @@
         <v>45666</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>17</v>
@@ -4088,16 +3973,16 @@
         <v>44627</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -4106,7 +3991,7 @@
         <v>45701</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>19</v>
@@ -4115,7 +4000,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -4124,15 +4009,15 @@
         <v>45708</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>17</v>
@@ -4141,16 +4026,16 @@
         <v>45266</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>18</v>
@@ -4159,7 +4044,7 @@
         <v>46174</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>19</v>
@@ -4168,7 +4053,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -4177,15 +4062,15 @@
         <v>45715</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -4194,34 +4079,34 @@
         <v>45049</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5">
         <v>46145</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5">
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -4230,15 +4115,15 @@
         <v>45691</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
@@ -4247,16 +4132,16 @@
         <v>45518</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>18</v>
@@ -4265,7 +4150,7 @@
         <v>46613</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -4274,7 +4159,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -4283,15 +4168,15 @@
         <v>45691</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -4300,25 +4185,25 @@
         <v>45688</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I7" s="5">
         <v>46783</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>19</v>
@@ -4327,7 +4212,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -4336,15 +4221,15 @@
         <v>45744</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="28" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>17</v>
@@ -4353,25 +4238,25 @@
         <v>45246</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="I8" s="17">
         <v>46342</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>19</v>
@@ -4380,7 +4265,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -4389,42 +4274,42 @@
         <v>45733</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C9" s="17">
         <v>45769</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>19</v>
@@ -4433,7 +4318,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -4442,42 +4327,42 @@
         <v>45775</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C10" s="17">
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
@@ -4486,7 +4371,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>
@@ -4495,10 +4380,10 @@
         <v>45789</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEEC15-6E1B-425B-9A58-593595045BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC840C-D6C8-4FBA-BC32-E673755B46EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="244">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -595,56 +595,7 @@
     <t>INPUGNACIONES</t>
   </si>
   <si>
-    <t>16/01/2025- AUTO N° 006 DE 2025- CORRE TRASLADO DE PRUEBAS
-29/08/2024: AUTO NO 109 DEL 13-08/2024 PRUEBAS DE IMPUGNACIÓN.
-01/02/2024  SE PROFIRIO AUTO NO 006 REITERANDO DECRETO DE PRUEBAS; 
-SE RECIBIERON HASTA EL 25 DE ABRIL DEL AÑO EN CURSO SOPORTES DE COMUNICACIÓN. SE PROFIRIÓ. AUTO N 109 DEL 13 DE AGOSTO DE 2024, EL CUAL DECRETÓ LA PRÁCTICA DE UNAS PRUEBAS PARA MEJOR PROVEER. SE NOTIFICÓ EL 28 DE AGOSTO DE 2024. SE PROFIRIÓ ACTO ADMINISTRATIVO NO 127 DEL 23 DE OCTUBRE DE 2024, A TRAVÉS DEL CUAL SE INSTA AL MOVIMIENTO COLOMBIA HUMANA A DAR CUMPLIMIENTO A LO CONMINADO EN EL ARTÍCULO PRIMERO DEL AUTO 109.</t>
-  </si>
-  <si>
-    <t>08/04/2025 PENDIENTE RESOLUCIÓN PARA SER FIRMADA Y PENDIENTE DE NOTIFICACIONES
-06/03/2025 - ENVIADA A RADICAR POR MONICA RESOLUCIÓN QUE CONCEDE IMPUGNACIÓN
-28/02/2025 RESOLUCIÓN CONCEDIENDO IMPUGNACIÓN, ENVIADA A REVISIÓN DE MIGUEL EL 27 DE FEBRERO DE 2025
-AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
-16/01/2025 YA LLEGARON LAS NOTIFICACIONES
-15/01/2025 SE DEBE CORRER TRASLADO</t>
-  </si>
-  <si>
     <t>LAURA ORTEGON</t>
-  </si>
-  <si>
-    <t>CNE-E-DG-2025-000141</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE REVOCATORIA DE INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO, EL SEÑOR JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025</t>
-  </si>
-  <si>
-    <t>PUTUMAYO</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO CABRERA</t>
-  </si>
-  <si>
-    <t>REVOCATORIA</t>
-  </si>
-  <si>
-    <t>19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 - RESOLUCIÓN No 00554 ESTARSE A LO RESUELTO EN LAS RESOLUCIONES No 00267 y 00479  DE 2025 QUE DECIDIERON NO REVOCAR LA INSCRIPCIÓN DE LA CANDIDATURA  A LA GOGERNACIÓN DE JHON GABRIEL MOLINA ACOSTA - NOTIFICADA EN AUDIENCIA DEL 12/02/2025
- 06/02/2025 - RESOLUCIÓN 00479 POR MEDIO DE LA CUAL NO SE REPONE LA RESOLUCIÓN 00262 DEL 29 DE ENERO DE 2025 
-29/01/2025 - RESOLUCIÓN No 0262 - NO SE REVOCA LA INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO,  JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025
-15/01/2025- AUTO 009- CORRE TRASLADO DE PRUEBAS
-10/01/2025- AUTO NO 002- CORRIGE AUTO 001 Y COMUNICA A LAS AGRUPACIONES POLÍTICAS AICO, MAIZ Y PARTIDO CONSERVADOR
-08/01/2025 AUTO NO. 001 DEL 8 DE ENERO DE 2025 AVOCA CONOCIMIENTO Y SOLICITA PRUEBA</t>
-  </si>
-  <si>
-    <t>08/04/2025 PENDIENTE PARA ARCHIVO
-06/03/2025 - PENDIENTE DE ARCHIVO  ENTREGA A LUISA CUCHIBAQUE 
-28/02/2025 SIGUE EN ESPERA DE OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 NOTIFICADA EN AUDIENCIA
-06/02/2025 PENDIENTE DE DECIDIR RESOLUCIÓN DE ATENERSE A LO RESUELTO 
-SE RECIBIÓ RECURSO DE REPOSICIÓN EL DÍA 30 DE ENERO DE 2025, ACTUALMENTE SE ESTÁ RESOLVIENDO RECURSO
-23/01/2025 CORRIENDO TERMINOS
-CORRIENDO TÉRMINOS Y EN ESPERA DE COMUNICACIONES</t>
   </si>
   <si>
     <t>CNE-E-DG-2025-006989</t>
@@ -1032,6 +983,22 @@
   <si>
     <t>15/05/2025 AUTO N° 046 AVOCA CONOCIMIENTO
 12/05/ 2025 RECIBIDO POR EL ASESOR</t>
+  </si>
+  <si>
+    <t>01/04/2025 REOSLUCION 01459 QUE CONCEDE IMPUGNACION
+16/01/2025- AUTO N° 006 DE 2025- CORRE TRASLADO DE PRUEBAS
+29/08/2024: AUTO NO 109 DEL 13-08/2024 PRUEBAS DE IMPUGNACIÓN.
+01/02/2024  SE PROFIRIO AUTO NO 006 REITERANDO DECRETO DE PRUEBAS; 
+SE RECIBIERON HASTA EL 25 DE ABRIL DEL AÑO EN CURSO SOPORTES DE COMUNICACIÓN. SE PROFIRIÓ. AUTO N 109 DEL 13 DE AGOSTO DE 2024, EL CUAL DECRETÓ LA PRÁCTICA DE UNAS PRUEBAS PARA MEJOR PROVEER. SE NOTIFICÓ EL 28 DE AGOSTO DE 2024. SE PROFIRIÓ ACTO ADMINISTRATIVO NO 127 DEL 23 DE OCTUBRE DE 2024, A TRAVÉS DEL CUAL SE INSTA AL MOVIMIENTO COLOMBIA HUMANA A DAR CUMPLIMIENTO A LO CONMINADO EN EL ARTÍCULO PRIMERO DEL AUTO 109.</t>
+  </si>
+  <si>
+    <t>06/05/2025 RECIBIDA CONSTANCIA DE NOTIFICACION DE LA REOSLUCION 01459 QUE CONCEDE IMPUGNACION
+08/04/2025 PENDIENTE RESOLUCIÓN PARA SER FIRMADA Y PENDIENTE DE NOTIFICACIONES
+06/03/2025 - ENVIADA A RADICAR POR MONICA RESOLUCIÓN QUE CONCEDE IMPUGNACIÓN
+28/02/2025 RESOLUCIÓN CONCEDIENDO IMPUGNACIÓN, ENVIADA A REVISIÓN DE MIGUEL EL 27 DE FEBRERO DE 2025
+AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
+16/01/2025 YA LLEGARON LAS NOTIFICACIONES
+15/01/2025 SE DEBE CORRER TRASLADO</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1676,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>19</v>
@@ -1718,7 +1685,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -1771,7 +1738,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N3" s="6">
         <v>45761</v>
@@ -1824,7 +1791,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N4" s="5">
         <v>45792</v>
@@ -1836,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -1877,7 +1844,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N5" s="9">
         <v>45792</v>
@@ -1889,7 +1856,7 @@
         <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -1930,7 +1897,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="N6" s="9">
         <v>45792</v>
@@ -1942,12 +1909,12 @@
         <v>39</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -1956,7 +1923,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>133</v>
@@ -1965,7 +1932,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>30</v>
@@ -1974,7 +1941,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1983,7 +1950,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N7" s="9">
         <v>45792</v>
@@ -2071,7 +2038,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>28</v>
@@ -2080,25 +2047,25 @@
         <v>45779</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>19</v>
@@ -2107,7 +2074,7 @@
         <v>45779</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="N2" s="6">
         <v>45779</v>
@@ -2116,7 +2083,7 @@
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>22</v>
@@ -2308,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2375,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -2461,7 +2428,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -2514,7 +2481,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -2567,7 +2534,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -2620,7 +2587,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -2673,7 +2640,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -2726,7 +2693,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -2779,7 +2746,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -2796,7 +2763,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>126</v>
@@ -2805,7 +2772,7 @@
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>25</v>
@@ -2814,16 +2781,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
@@ -2832,7 +2799,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>
@@ -2980,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,7 +3047,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
@@ -3089,10 +3056,10 @@
         <v>45691</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -3133,7 +3100,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="N3" s="9">
         <v>45792</v>
@@ -3142,13 +3109,13 @@
         <v>45691</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>158</v>
       </c>
@@ -3177,81 +3144,81 @@
         <v>45466</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="6">
-        <v>45673</v>
+        <v>45748</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="N4" s="5">
-        <v>45755</v>
+        <v>45783</v>
       </c>
       <c r="O4" s="6">
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22">
-        <v>45665</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="22">
-        <v>45700</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45755</v>
+      <c r="C5" s="9">
+        <v>45684</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="9">
+        <v>46779</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45792</v>
       </c>
       <c r="O5" s="6">
-        <v>45691</v>
+        <v>45688</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>22</v>
+        <v>163</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -3292,7 +3259,7 @@
         <v>45735</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N6" s="6">
         <v>45792</v>
@@ -3301,10 +3268,10 @@
         <v>45688</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3347,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>126</v>
@@ -3389,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>25</v>
@@ -3398,16 +3365,16 @@
         <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>19</v>
@@ -3416,7 +3383,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>108</v>
@@ -3425,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>22</v>
@@ -3433,34 +3400,34 @@
     </row>
     <row r="3" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I3" s="9">
         <v>46395</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
@@ -3469,7 +3436,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>108</v>
@@ -3478,7 +3445,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>22</v>
@@ -3557,22 +3524,22 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C2" s="6">
         <v>43999</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>26</v>
@@ -3584,7 +3551,7 @@
         <v>44967</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>38</v>
@@ -3593,7 +3560,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -3602,7 +3569,7 @@
         <v>45691</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>22</v>
@@ -3610,7 +3577,7 @@
     </row>
     <row r="3" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -3619,7 +3586,7 @@
         <v>45266</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>25</v>
@@ -3637,7 +3604,7 @@
         <v>46232</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>19</v>
@@ -3646,7 +3613,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="N3" s="6">
         <v>45791</v>
@@ -3655,7 +3622,7 @@
         <v>45691</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>22</v>
@@ -3663,7 +3630,7 @@
     </row>
     <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>17</v>
@@ -3672,7 +3639,7 @@
         <v>44861</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>25</v>
@@ -3690,7 +3657,7 @@
         <v>45790</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -3699,7 +3666,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -3708,7 +3675,7 @@
         <v>45691</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>22</v>
@@ -3787,7 +3754,7 @@
     </row>
     <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
@@ -3796,25 +3763,25 @@
         <v>45700</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I2" s="13">
         <v>46795</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>19</v>
@@ -3823,7 +3790,7 @@
         <v>45744</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="N2" s="6">
         <v>45777</v>
@@ -3832,7 +3799,7 @@
         <v>45701</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>22</v>
@@ -3947,7 +3914,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -4000,7 +3967,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -4053,7 +4020,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -4106,7 +4073,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -4159,7 +4126,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -4212,7 +4179,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -4265,7 +4232,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -4318,7 +4285,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -4335,7 +4302,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>126</v>
@@ -4344,7 +4311,7 @@
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>25</v>
@@ -4353,16 +4320,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
@@ -4371,7 +4338,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DC840C-D6C8-4FBA-BC32-E673755B46EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF715F-868A-46EB-B02D-0903D033236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="244">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -2945,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,59 +3218,6 @@
         <v>163</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45684</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="9">
-        <v>46779</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="9">
-        <v>45735</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45792</v>
-      </c>
-      <c r="O6" s="6">
-        <v>45688</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="20" t="s">
         <v>228</v>
       </c>
     </row>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AF715F-868A-46EB-B02D-0903D033236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23000D9-5323-46B4-A274-E3CD0A9123AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -755,9 +755,6 @@
     <t>REVOCATORIA DE MANDATO</t>
   </si>
   <si>
-    <t>02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
-  </si>
-  <si>
     <t>SHANNERY CHAPARRO</t>
   </si>
   <si>
@@ -999,6 +996,10 @@
 AUTO COMUNICADO EL 16 DE ENERO DE 2025, TÉRMINOS CUMPLIDOS EL 24 DE ENERO D 2025, EN PROYECCIÓN DECISIÓN
 16/01/2025 YA LLEGARON LAS NOTIFICACIONES
 15/01/2025 SE DEBE CORRER TRASLADO</t>
+  </si>
+  <si>
+    <t>14/05/2025 REALIZADA AUDIENCIA PÚBLICA
+02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1677,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>19</v>
@@ -1685,7 +1686,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -1738,7 +1739,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N3" s="6">
         <v>45761</v>
@@ -1791,7 +1792,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N4" s="5">
         <v>45792</v>
@@ -1803,7 +1804,7 @@
         <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -1844,7 +1845,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N5" s="9">
         <v>45792</v>
@@ -1856,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -1897,7 +1898,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N6" s="9">
         <v>45792</v>
@@ -1909,12 +1910,12 @@
         <v>39</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -1923,7 +1924,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>133</v>
@@ -1932,7 +1933,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>30</v>
@@ -1941,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1950,7 +1951,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N7" s="9">
         <v>45792</v>
@@ -1974,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,25 +2066,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="13">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="N2" s="6">
-        <v>45779</v>
+        <v>45791</v>
       </c>
       <c r="O2" s="13">
         <v>45779</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>22</v>
@@ -2375,7 +2376,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -2428,7 +2429,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -2481,7 +2482,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -2534,7 +2535,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -2587,7 +2588,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -2640,7 +2641,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -2693,7 +2694,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -2746,7 +2747,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -2763,7 +2764,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>126</v>
@@ -2772,16 +2773,16 @@
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>198</v>
@@ -2790,7 +2791,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
@@ -2799,7 +2800,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>
@@ -2947,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3048,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
@@ -3059,7 +3060,7 @@
         <v>163</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -3100,7 +3101,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N3" s="9">
         <v>45792</v>
@@ -3112,7 +3113,7 @@
         <v>163</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
@@ -3144,7 +3145,7 @@
         <v>45466</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -3153,7 +3154,7 @@
         <v>45748</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N4" s="5">
         <v>45783</v>
@@ -3206,7 +3207,7 @@
         <v>45735</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N5" s="6">
         <v>45792</v>
@@ -3218,7 +3219,7 @@
         <v>163</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3508,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -3560,7 +3561,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N3" s="6">
         <v>45791</v>
@@ -3613,7 +3614,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -3861,7 +3862,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -3914,7 +3915,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -3967,7 +3968,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -4020,7 +4021,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -4073,7 +4074,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -4126,7 +4127,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -4179,7 +4180,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -4232,7 +4233,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -4249,7 +4250,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>126</v>
@@ -4258,16 +4259,16 @@
         <v>45782</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>198</v>
@@ -4276,7 +4277,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>19</v>
@@ -4285,7 +4286,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>

--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23000D9-5323-46B4-A274-E3CD0A9123AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A733CF-29FE-4CBB-A32B-FCF535D0151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="333">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -998,8 +998,326 @@
 15/01/2025 SE DEBE CORRER TRASLADO</t>
   </si>
   <si>
-    <t>14/05/2025 REALIZADA AUDIENCIA PÚBLICA
-02/05/2025 ASIGNADO A LA ASESORA SHANNERY CHAPARRO</t>
+    <t>CNE-E-DG-2025-009162</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "FUERZA JOVEN" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO  DE  LA APARTADA FRONTERA CORDOBA</t>
+  </si>
+  <si>
+    <t>LA APARTADA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE INSCRIPCIÓN DE CANDIDATOS</t>
+  </si>
+  <si>
+    <t>REGISTRO DE LOGO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR LA ASESORA ANYI AGUIRRE</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009346</t>
+  </si>
+  <si>
+    <t>QUEJA POR POSIBLE HECHOS ANÓMALOS EN EL MUNICIPIO DE LA JAGUA DEL PILAR LA GUAJIRA DURANTE EL DESARROLLO DE LA ELECCIONES ATÍPICAS DEL 18 DE MAYO DE 2025</t>
+  </si>
+  <si>
+    <t>LA GUAJIRA</t>
+  </si>
+  <si>
+    <t>LA GAJUA DEL PILAR</t>
+  </si>
+  <si>
+    <t>FABIAN VICENTE COTES GONZALEZ</t>
+  </si>
+  <si>
+    <t>DELITO ELECTORAL</t>
+  </si>
+  <si>
+    <t>23/05/ 2025 RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "JUVENTUDES ODS" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE VILLAVICENCIO META</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR EL ASESOR JHON TRUJILLO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009351</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "VOCES INCLUYENTES" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE SANTA ROSA - META</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>REGISTRO LOGO</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR EL ASESOR MIGUEL CALDERON</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2024-012113</t>
+  </si>
+  <si>
+    <t>ACCIÓN DE PROTECCION DE DERECHOS DE OPOSICIÓN CONTRA ALCALDIA DE ACHÍ- BOLIVAR POR POSIBLE VULNERCIÓN AL ARTICULO 16 DE LA LEY 1909 DE 2018</t>
+  </si>
+  <si>
+    <t>BOLIVAR</t>
+  </si>
+  <si>
+    <t>ACHÍ</t>
+  </si>
+  <si>
+    <t>RAMON GUSTAVO NIEBLES MERCADO</t>
+  </si>
+  <si>
+    <t>26/02/2025 AUTO CORRE TRASLADO PARA PRESENTAR ALEGATOS DE CONCLUSIÓN A LA ALCALDÍA DE ACHÍ- BOLÍVAR.
+12/12/2024 RESOLUCIÓN NO. 6620, POR MEDIO DE LA CUAL SE FORMULA CARGOS A LA ALCALDÍA DE ACHÍ BOLÍVAR 
+25/10/24 PONENCIA NO. 16077 RADICADA EN SALA POR MEDIO DE LA CUAL SE FORMULA CARGOS A LA ALCALDÍA DE ACHÍ BOLÍVAR (EN CONJUECES).
+24/07/24 RESOLUCIÓN NO. 03881 POR MEDIO DE LA CUAL SE AMPARA EL DERECHO DE OPOSICIÓN. APROBADA EN SALA DEL 24/07/24. FINALIZA TÉRMINO PARA ALLEGAR PRUEBAS DE LO ORDENADO EL 17/09.
+16/07/24 AUTO NO. 097 POR MEDIO DEL CUAL SE DECRETA UNA PRUEBA.
+30/05/24 AUTO NO. 074 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO.</t>
+  </si>
+  <si>
+    <t>28/04/2025 PONENCIA RADICADA EN SALA POR MEDIO DEL CUAL SE SANCIONA A LA ALCALDIA
+03/04/2025 PONENCIA RADICADA EN SALA POR MEDIO DE LA CUAL SE SANCIONA LA ALCALDIA
+28/03/2025 PONENCIA DE SANCIÓN EN REVISIÓN DEL PRIMER FILTRO CON FECHA DEL 28
+14/03/2025 PENDIENTE PROYECTAR DECISIÓN 
+06/03/2025 EN VENCIMIENTO DETÉRMINOS PARA PRESENTAR ALEGATOS EL 13/03/2025.
+27/02/2025 VENCE TÉRMINOS PARA PRESENTAR ALEGATOS EL 13/03/2025.
+20/02/2025 SE VENCIÓ TÉRMINOS PARA ALLEGAR DESCARGOS EL 19/02/2025. PENDIENTE PROYECTAR AUTO DE ALEGATOS
+VENCE TÉRMINO PARA ALLEGAR DESCARGOS EL DÍA 19/02/2025</t>
+  </si>
+  <si>
+    <t>STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-003389</t>
+  </si>
+  <si>
+    <t>DENUNCIA CONTRA LA CAMPAÑA DEL ACTUAL ALCANDE JOHN GERMAN RAMIREZ HERNANDEZ, POR SUPUESTO APORTE DE FINANCIACIÓN</t>
+  </si>
+  <si>
+    <t>SAN MARTIN DE LOS LLANOS</t>
+  </si>
+  <si>
+    <t>CAMILO MORENO</t>
+  </si>
+  <si>
+    <t>07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS
+04/03/2025 AUTO No 025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE DECRETAN PRUEBAS
+27/02/2025 RECIBIDO</t>
+  </si>
+  <si>
+    <t>16/05/2025 SECRETARÍAALLEGA OFICIO DE NOTIFICACIÓN DE AUTO N° 043 
+AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS 
+07/05/2025 AUTO No. 043 DE 2025, POR MEDIO DEL CUAL SE DECRETA LA PRACTICA DE PRUEBAS 
+28/04/2025 EN REVISIÓN DE SHANNERY AUTO DECRETA PRUEBA
+07/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
+28/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+14/03/2025  EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS
+06/03/2025 EN TERMINO PARA QUE SE ALLEGUEN PRUEBAS</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-003216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEJA SOBRE LA FINANCIACIÓN DE LA CAMPAÑA COMO CANDIDATO, DEL ACTUAL ALCALDE DEL MUNICIPIO DE COTA - CUNDINAMARCA, SEÑOR NESTOR ORLANDO BALSERO GARCÍA </t>
+  </si>
+  <si>
+    <t>COTA</t>
+  </si>
+  <si>
+    <t>JAIME ALCIDES RODRIGUEZ PEÑA</t>
+  </si>
+  <si>
+    <t>02/04/2025 AUTO No 030 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO Y SE ABRE INDAGACION PREMILINAR
+19/03/2025 RECIBIDO POR LA ASESORA STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>14/05/2025 AUTO REITERA EN REVISIÓN DE MIGUEL
+15/04/2025 EN ESPERA DE LOS TERMINOS PARA QUE SE ALLEGUEN PRUEBAS
+07/04/2025 PENDIENTE DE COMUNICACIONES
+28/03/2025 AUTO AVOCA EN REVISIÓN DE PRIMER FILTRO EL 20 DE MARZO DE 2025
+17/03/2025 EN PROYECCIÓN AUTO QUE AVOCA
+06/03/2025 ASESOR INDICA QUE EL EXPEDIENTE SIGUE EN REVISIÓN</t>
+  </si>
+  <si>
+    <t>ORIGEN: JUAN DAVID OSPINA DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-008157</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE PRÓRROGA PARA LA RECOLECCIÓN DE FIRMAS DE LA CONSULTA POPULAR DE ORIGEN CIUDADANO DENOMINADA "MUNICIPIO DE ALCALÁ EN EL ÁREA METROPOLITANA CENTRO OCCIDENTE AMCO</t>
+  </si>
+  <si>
+    <t>ALCALÁ</t>
+  </si>
+  <si>
+    <t>CARLOS ALCIDES ROJAS PEREZ</t>
+  </si>
+  <si>
+    <t>MECANISMOS DE PARTICIPACIÓN CIUDADANA</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 de 2025 POR MEDIO DEL CUAL SE AVOCA CONOCIMIENTO
+05/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-007754</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE RECONOCIMIENTO DE AGRUPACIÓN POLÍTICA MOVIMIENTO POLÍTICO SOCIAL COMUNAL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GUSTAVO GARCIA FIGUEROA Y JENNY LILIANA PULIDO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
+29/04/2025 RECIBIDO POR LA ASESORA STPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>09/05/2025 AUTO No. 045 DE 2025 POR MEDIO DEL CUAL SE AVOCÓ CONOCIMIENTO 
+29/04/2025 RECIBIDO POR LA ASESORA STPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-006767</t>
+  </si>
+  <si>
+    <t>REGISTRO DE NUEVOS MIEMBROS DEL CONSEJO DE CONTROL DE ETICA DEL PARTIDO COLOMBIA RENACIENTE</t>
+  </si>
+  <si>
+    <t>JHON ARLEY MURILLO BENITEZ</t>
+  </si>
+  <si>
+    <t>28/04/2025 AUTO No 037
+11/04/2025 RECIBIDO</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
+28/04/2025 A LA ESPERA DE COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>ORIGEN: ANDREA TOBAR DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2024-021586</t>
+  </si>
+  <si>
+    <t>PRESUNTA VULNERACIÓN DEL ART. 23 DE LA LEY 1475 DE 2011, LIMITES A LA FINANCIACIÓN PRIVADA</t>
+  </si>
+  <si>
+    <t>ARAUCA</t>
+  </si>
+  <si>
+    <t>SARAVENA</t>
+  </si>
+  <si>
+    <t>ESTEBAN FERNANDO BURBANO DUQUE</t>
+  </si>
+  <si>
+    <t>01/04/2025 RESOLUCION No 01440 APROBADA EN SALA EL 1 DE ABRIL 2025
+10/02/2025 - OFICIO N° 038 - SE REMITE COPIA DEL EXPEDIENTE AL MINISTERIO PUBLICO 
+22/01/2025   RESOLUCIÓN No. 00197 - APROBADA EN SALA 
+07/01/2025 - REMITO FORMULACIÓN DE CARGOS A REVISIÓN
+13/12/2024 RECIBIDO</t>
+  </si>
+  <si>
+    <t>15/05/2025 REASIGNADO A LA ASESORA STEPHANI GUERRERO
+28/04/2025 EN ESPERA DE COMUNICACIONES PARA INICIAR AUTO DE ALEGATOS
+07/04/2025 EN ESPERA DE SU DEBIDA NOTIFICACION
+27/03/2025 SE REALIZA FORMULACIÓN DE CARGOS EN CONTRA DEL EXCANDIDATO, SE RADICO EN SALA EL 20 DE MARZO 
+14/03/2025 EN PROCESO DE REALIZACION RESOLUCION DE FORMULACION DE CARGOS AL EX GERENTE DE CAMPAÑA 
+06/03/2025 EN ESPERA DE TERMINO PARA REALIZAR AUTO DE ALEGATOS (10/03/2025)
+27/02/2025 - EN ESPERA DEL TERMINO PARA INICIAR AUTO DE ALEGATOS DE CONCLUSIÓN. 
+21/02/2025 - EN ESPERA DE QUE ALLEGUEN DESCARGOS
+13/02/2024 - EN ESPERA DE COMUNICACIONES 
+04/02/2025 A LA ESPERA DE COMUNICACIONES
+23/01/2025 EN ESPERA DE COMUNICACIÓN
+15/01/2025 PONENCIA PARA RADICAR EN SALA 
+PENDIENTE EN NOTIFICACION</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2023-021293</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD PROPAGANDA ELECTORAL</t>
+  </si>
+  <si>
+    <t>NANCY OLIVIA BURBAN</t>
+  </si>
+  <si>
+    <t>19/03/2025 RECIBIDO POR LA ASESORA GENESIS CUELLO</t>
+  </si>
+  <si>
+    <t>28/04/2024 PROYECTANDO RECURSO INTERPUESTO A LA RESOLUCIÓN SANCIÓN
+07/04/2025 EN ESTUDIO DE EXPEDIENTE
+31/03/2025 ASESOR INDICA QUE EL EXPEDIENTE ESTA EN REVISIÓN</t>
+  </si>
+  <si>
+    <t>ORIGEN: GÉNESIS CUELLO DESTINO: STEPHANI GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009483</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "PARCHADOS BCA" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE BARRANCABERMEJA - SANTANDER</t>
+  </si>
+  <si>
+    <t>BARRANCABERMEJA</t>
+  </si>
+  <si>
+    <t>RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SOLICITUD DE REGISTRO DE LOGOTIPO DE LA LISTA DENOMINADA "JÓVENES POR UNA MEJOR CIUDAD" PARA EL CONSEJO DE JUVENTUDES EN EL MUNICIPIO DE VILLAVICENCIO META</t>
+  </si>
+  <si>
+    <t>CNE-E-DG-2025-009133</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN 02056 DE 2025: DECLARACIÓN POLÍTICA EXTEMPORÁNEA, PARA QUE ADELANTEN LAS ACTUACIONES ADMINISTRATIVAS CORRESPONDIENTES, POR PARTE DEL PARTIDO CAMBIO RADICAL FRENTE AL GOBIERNO DE SAN ONOFRE SUCRE</t>
+  </si>
+  <si>
+    <t>SUCRE</t>
+  </si>
+  <si>
+    <t>SAN ONOFRE</t>
+  </si>
+  <si>
+    <t>RESOLUCIÓN 02056 DE 2025</t>
+  </si>
+  <si>
+    <t>DECLARACION POLITICA</t>
+  </si>
+  <si>
+    <t>AUTO 050 AVOCA CONOCIMIENTO DE LA COMPULSA DE COPIAS</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1373,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1193,11 +1519,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1239,9 +1566,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,12 +1605,151 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2AF8BEAA-C327-4F20-8D05-10D15FA1704F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1584,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,17 +2429,81 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45798</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="9">
+        <v>45798</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="N8" s="10">
+        <v>45799</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45798</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{657348A8-837A-4B73-9F53-9C3C0790233D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="I2" sqref="I2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2511,7 @@
     <col min="1" max="17" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
@@ -2062,35 +2589,70 @@
       <c r="H2" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="13">
+        <v>45798</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="R2" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13">
-        <v>45791</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="N2" s="6">
-        <v>45791</v>
-      </c>
-      <c r="O2" s="13">
-        <v>45779</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="T2" s="13">
+        <v>45799</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="V2" s="13">
+        <v>45799</v>
+      </c>
+      <c r="W2" s="6">
+        <v>45803</v>
+      </c>
+      <c r="X2" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{F2C53C15-E38C-4F55-A9E2-303141146E85}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2274,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,40 +2901,40 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>44203</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>45298</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="24">
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
@@ -2381,51 +2943,51 @@
       <c r="N2" s="5">
         <v>45793</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>45666</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>44627</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>45701</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="24">
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
@@ -2434,51 +2996,51 @@
       <c r="N3" s="5">
         <v>45793</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <v>45708</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>45266</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>46174</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
@@ -2487,13 +3049,13 @@
       <c r="N4" s="5">
         <v>45793</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>45715</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2543,10 +3105,10 @@
       <c r="O5" s="6">
         <v>45691</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="27" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2649,104 +3211,104 @@
       <c r="O7" s="6">
         <v>45744</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>45246</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>46342</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>45735</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>238</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>45733</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>45769</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>45769</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>239</v>
       </c>
       <c r="N9" s="5">
@@ -2755,51 +3317,51 @@
       <c r="O9" s="5">
         <v>45775</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>45782</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>45792</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>240</v>
       </c>
       <c r="N10" s="5">
@@ -2808,14 +3370,140 @@
       <c r="O10" s="5">
         <v>45789</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45800</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="16">
+        <v>45800</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="32">
+        <v>45803</v>
+      </c>
+      <c r="O11" s="16">
+        <v>45803</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45798</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="16">
+        <v>45798</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="N12" s="32">
+        <v>45798</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45798</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{AF103C97-F03C-4495-BDE8-87273BCE9ED5}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{4F2EBC93-F0E9-40ED-852D-754C9B25DE0E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3011,55 +3699,55 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>45264</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>46315</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="20">
         <v>45735</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>223</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="20">
         <v>45691</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3070,7 +3758,7 @@
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>45653</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3088,7 +3776,7 @@
       <c r="H3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>46549</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -3097,7 +3785,7 @@
       <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -3112,7 +3800,7 @@
       <c r="P3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3218,7 +3906,7 @@
       <c r="P5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="19" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3229,10 +3917,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+      <selection activeCell="A2" sqref="A2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,7 +4087,71 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45800</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45800</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45803</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{316F63DD-6A47-431A-8C65-B8E2F411C9AA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3760,10 +4512,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,484 +4576,557 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25">
-        <v>44203</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="5">
+        <v>45440</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46535</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45714</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N2" s="6">
+        <v>45775</v>
+      </c>
+      <c r="O2" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <v>46992</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45784</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" s="6">
+        <v>45793</v>
+      </c>
+      <c r="O3" s="6">
+        <v>45715</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45709</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="9">
+        <v>46804</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45735</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4" s="6">
+        <v>45761</v>
+      </c>
+      <c r="O4" s="6">
+        <v>45713</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9">
+        <v>45417</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="J5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45786</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="N5" s="6">
+        <v>45791</v>
+      </c>
+      <c r="O5" s="6">
+        <v>45714</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45776</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="25">
-        <v>45298</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="25">
-        <v>45698</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O2" s="26">
-        <v>45666</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="25">
-        <v>44627</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="25">
-        <v>45701</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="25">
-        <v>45744</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="N3" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O3" s="26">
-        <v>45708</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="25">
-        <v>45266</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="25">
-        <v>46174</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="25">
-        <v>45714</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O4" s="26">
-        <v>45715</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>45049</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5">
-        <v>46145</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5">
-        <v>45734</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O5" s="6">
-        <v>45691</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="204" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>45518</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="9">
-        <v>46613</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="9">
-        <v>45771</v>
+        <v>45786</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="N6" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O6" s="6">
+        <v>300</v>
+      </c>
+      <c r="N6" s="9">
+        <v>45791</v>
+      </c>
+      <c r="O6" s="9">
+        <v>45714</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>45758</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45775</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="N7" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O7" s="6">
+        <v>45775</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45638</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5">
+        <v>46733</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
+        <v>45748</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N8" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O8" s="6">
         <v>45691</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="P8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
-        <v>45688</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="5">
-        <v>46783</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="C9" s="5">
+        <v>45161</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="5">
+        <v>46257</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="5">
-        <v>45748</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N7" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O7" s="6">
-        <v>45744</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17">
-        <v>45246</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="17">
-        <v>46342</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="19" t="s">
+      <c r="L9" s="5">
+        <v>45370</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="6">
+        <v>45792</v>
+      </c>
+      <c r="O9" s="6">
+        <v>45691</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>45803</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17">
-        <v>45735</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="N8" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O8" s="21">
-        <v>45733</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="17">
-        <v>45769</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="L10" s="9">
+        <v>45803</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="N10" s="10">
+        <v>45803</v>
+      </c>
+      <c r="O10" s="9">
+        <v>45803</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="96" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45798</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="J11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="17">
-        <v>45769</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="N9" s="5">
-        <v>45793</v>
-      </c>
-      <c r="O9" s="5">
-        <v>45775</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="17">
-        <v>45782</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="17">
-        <v>45792</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="N10" s="5">
-        <v>45792</v>
-      </c>
-      <c r="O10" s="5">
-        <v>45789</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>25</v>
+      <c r="L11" s="9">
+        <v>45798</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11" s="10">
+        <v>45798</v>
+      </c>
+      <c r="O11" s="9">
+        <v>45798</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{12317B88-EC32-469A-BC9F-9918DCCA964C}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{C19A4EFE-C67B-4D90-A2B3-39260CA6EDB6}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
+++ b/HSA VISTA GENERAL H.M ALVARO ECHEVERRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerardo.forero\Desktop\HSA-VISTA-GENERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A733CF-29FE-4CBB-A32B-FCF535D0151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1FB7D7-A1F5-4977-A1FE-19E7D7F9DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="329">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -737,24 +737,6 @@
 21/02/2025 ASESOR INDICA QUE NO HAY NUEVOS ACTOS ADMINISTRATIVOS</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-008134</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE REVOCATORIA DE MANDATO DEL ACTUAL ALCALDE DEL MUNICIPIO DE HONDA TOLIMA, SEÑOR JUAN ENRIQUE RONDON GARCIA</t>
-  </si>
-  <si>
-    <t>TOLIMA</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>CARLOS HUGO MESA MAYNE</t>
-  </si>
-  <si>
-    <t>REVOCATORIA DE MANDATO</t>
-  </si>
-  <si>
     <t>SHANNERY CHAPARRO</t>
   </si>
   <si>
@@ -1289,9 +1271,6 @@
     <t>BARRANCABERMEJA</t>
   </si>
   <si>
-    <t>RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
-  </si>
-  <si>
     <t>CNE-E-DG-2025-009180</t>
   </si>
   <si>
@@ -1317,7 +1296,16 @@
     <t>DECLARACION POLITICA</t>
   </si>
   <si>
-    <t>AUTO 050 AVOCA CONOCIMIENTO DE LA COMPULSA DE COPIAS</t>
+    <t>22/05/2025 AUTO 050 AVOCA CONOCIMIENTO DE LA COMPULSA DE COPIAS</t>
+  </si>
+  <si>
+    <t>21/05/ 2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>26/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
+  </si>
+  <si>
+    <t>21/05/2025 RECIBIDO POR LA ASESORA STEPHANIE GUERRERO</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1611,9 +1599,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1638,10 +1623,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,21 +1650,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2AF8BEAA-C327-4F20-8D05-10D15FA1704F}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2049,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2126,7 @@
         <v>46164</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>19</v>
@@ -2149,7 +2135,7 @@
         <v>45761</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -2202,7 +2188,7 @@
         <v>45735</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N3" s="6">
         <v>45761</v>
@@ -2255,7 +2241,7 @@
         <v>45722</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="N4" s="5">
         <v>45792</v>
@@ -2267,7 +2253,7 @@
         <v>39</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
@@ -2308,7 +2294,7 @@
         <v>45705</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N5" s="9">
         <v>45792</v>
@@ -2320,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -2361,7 +2347,7 @@
         <v>45708</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N6" s="9">
         <v>45792</v>
@@ -2373,12 +2359,12 @@
         <v>39</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -2387,7 +2373,7 @@
         <v>45791</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>133</v>
@@ -2396,7 +2382,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>30</v>
@@ -2405,7 +2391,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -2414,7 +2400,7 @@
         <v>45792</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N7" s="9">
         <v>45792</v>
@@ -2431,7 +2417,7 @@
     </row>
     <row r="8" spans="1:17" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>28</v>
@@ -2440,25 +2426,25 @@
         <v>45798</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -2466,8 +2452,8 @@
       <c r="L8" s="9">
         <v>45798</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>248</v>
+      <c r="M8" s="44" t="s">
+        <v>242</v>
       </c>
       <c r="N8" s="10">
         <v>45799</v>
@@ -2484,10 +2470,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2502,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE6D97-3CA4-4CCD-93A2-5E21B1D09E30}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Y2"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,84 +2551,76 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>201</v>
+      <c r="A2" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="13">
-        <v>45779</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>202</v>
+        <v>45798</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>320</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="13">
-        <v>45798</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="S2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13">
+      <c r="L2" s="13">
         <v>45799</v>
       </c>
-      <c r="U2" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="13">
+      <c r="M2" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" s="13">
         <v>45799</v>
       </c>
-      <c r="W2" s="6">
+      <c r="O2" s="6">
         <v>45803</v>
       </c>
-      <c r="X2" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="P2" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="39"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>"m2&gt;60"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
@@ -2651,7 +2629,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{F2C53C15-E38C-4F55-A9E2-303141146E85}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DAD734E0-D319-4AF5-9A7C-2828F118D8B4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2838,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q12"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,7 +2916,7 @@
         <v>45698</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N2" s="5">
         <v>45793</v>
@@ -2991,7 +2969,7 @@
         <v>45744</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N3" s="5">
         <v>45793</v>
@@ -3044,7 +3022,7 @@
         <v>45714</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N4" s="5">
         <v>45793</v>
@@ -3097,7 +3075,7 @@
         <v>45734</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N5" s="5">
         <v>45793</v>
@@ -3150,7 +3128,7 @@
         <v>45771</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N6" s="5">
         <v>45793</v>
@@ -3203,7 +3181,7 @@
         <v>45748</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N7" s="5">
         <v>45793</v>
@@ -3256,7 +3234,7 @@
         <v>45735</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N8" s="5">
         <v>45793</v>
@@ -3309,7 +3287,7 @@
         <v>45769</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N9" s="5">
         <v>45793</v>
@@ -3326,7 +3304,7 @@
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>126</v>
@@ -3335,7 +3313,7 @@
         <v>45782</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>25</v>
@@ -3344,7 +3322,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>198</v>
@@ -3353,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>19</v>
@@ -3362,7 +3340,7 @@
         <v>45792</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N10" s="5">
         <v>45792</v>
@@ -3378,8 +3356,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>249</v>
+      <c r="A11" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>126</v>
@@ -3388,25 +3366,25 @@
         <v>45800</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>19</v>
@@ -3414,10 +3392,10 @@
       <c r="L11" s="16">
         <v>45800</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="N11" s="32">
+      <c r="M11" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" s="31">
         <v>45803</v>
       </c>
       <c r="O11" s="16">
@@ -3427,12 +3405,12 @@
         <v>87</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>257</v>
+      <c r="A12" s="30" t="s">
+        <v>251</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>126</v>
@@ -3441,25 +3419,25 @@
         <v>45798</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>19</v>
@@ -3467,10 +3445,10 @@
       <c r="L12" s="16">
         <v>45798</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="N12" s="32">
+      <c r="M12" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="N12" s="31">
         <v>45798</v>
       </c>
       <c r="O12" s="5">
@@ -3480,19 +3458,11 @@
         <v>87</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
@@ -3736,7 +3706,7 @@
         <v>45735</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N2" s="9">
         <v>45792</v>
@@ -3748,7 +3718,7 @@
         <v>163</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
@@ -3789,7 +3759,7 @@
         <v>45712</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="N3" s="9">
         <v>45792</v>
@@ -3801,7 +3771,7 @@
         <v>163</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
@@ -3833,7 +3803,7 @@
         <v>45466</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -3842,7 +3812,7 @@
         <v>45748</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N4" s="5">
         <v>45783</v>
@@ -3895,7 +3865,7 @@
         <v>45735</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N5" s="6">
         <v>45792</v>
@@ -3907,7 +3877,7 @@
         <v>163</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3919,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q4"/>
+    <sheetView topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,8 +4058,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>262</v>
+      <c r="A4" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>28</v>
@@ -4097,26 +4067,26 @@
       <c r="C4" s="6">
         <v>45800</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>263</v>
+      <c r="D4" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>19</v>
@@ -4124,11 +4094,11 @@
       <c r="L4" s="6">
         <v>45800</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>266</v>
+      <c r="M4" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O4" s="6">
         <v>45803</v>
@@ -4260,7 +4230,7 @@
         <v>45615</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N2" s="6">
         <v>45791</v>
@@ -4313,7 +4283,7 @@
         <v>45693</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N3" s="6">
         <v>45791</v>
@@ -4366,7 +4336,7 @@
         <v>45720</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -4514,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q11"/>
+    <sheetView topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,7 +4548,7 @@
     </row>
     <row r="2" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -4587,16 +4557,16 @@
         <v>45440</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>198</v>
@@ -4605,7 +4575,7 @@
         <v>46535</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>19</v>
@@ -4614,7 +4584,7 @@
         <v>45714</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="N2" s="6">
         <v>45775</v>
@@ -4623,7 +4593,7 @@
         <v>45691</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>22</v>
@@ -4631,7 +4601,7 @@
     </row>
     <row r="3" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -4640,16 +4610,16 @@
         <v>45715</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -4658,7 +4628,7 @@
         <v>46992</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>19</v>
@@ -4667,7 +4637,7 @@
         <v>45784</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="N3" s="6">
         <v>45793</v>
@@ -4676,7 +4646,7 @@
         <v>45715</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>22</v>
@@ -4684,7 +4654,7 @@
     </row>
     <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>17</v>
@@ -4693,16 +4663,16 @@
         <v>45709</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>18</v>
@@ -4711,7 +4681,7 @@
         <v>46804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -4720,7 +4690,7 @@
         <v>45735</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N4" s="6">
         <v>45761</v>
@@ -4729,15 +4699,15 @@
         <v>45713</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>28</v>
@@ -4746,25 +4716,25 @@
         <v>45417</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -4773,7 +4743,7 @@
         <v>45786</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="N5" s="6">
         <v>45791</v>
@@ -4782,7 +4752,7 @@
         <v>45714</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4790,7 +4760,7 @@
     </row>
     <row r="6" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>28</v>
@@ -4799,16 +4769,16 @@
         <v>45776</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>298</v>
+        <v>291</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>292</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>129</v>
@@ -4817,7 +4787,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -4826,7 +4796,7 @@
         <v>45786</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N6" s="9">
         <v>45791</v>
@@ -4835,7 +4805,7 @@
         <v>45714</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -4843,7 +4813,7 @@
     </row>
     <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
@@ -4852,7 +4822,7 @@
         <v>45758</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -4861,7 +4831,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>30</v>
@@ -4870,7 +4840,7 @@
         <v>25</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -4879,7 +4849,7 @@
         <v>45775</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="N7" s="6">
         <v>45792</v>
@@ -4888,15 +4858,15 @@
         <v>45775</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -4905,16 +4875,16 @@
         <v>45638</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
@@ -4923,7 +4893,7 @@
         <v>46733</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>19</v>
@@ -4932,7 +4902,7 @@
         <v>45748</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N8" s="6">
         <v>45792</v>
@@ -4941,15 +4911,15 @@
         <v>45691</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -4958,7 +4928,7 @@
         <v>45161</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
@@ -4967,7 +4937,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>45</v>
@@ -4976,7 +4946,7 @@
         <v>46257</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -4985,7 +4955,7 @@
         <v>45370</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N9" s="6">
         <v>45792</v>
@@ -4994,15 +4964,15 @@
         <v>45691</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
@@ -5011,25 +4981,25 @@
         <v>45803</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>246</v>
+        <v>316</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -5037,8 +5007,8 @@
       <c r="L10" s="9">
         <v>45803</v>
       </c>
-      <c r="M10" s="30" t="s">
-        <v>323</v>
+      <c r="M10" s="44" t="s">
+        <v>327</v>
       </c>
       <c r="N10" s="10">
         <v>45803</v>
@@ -5047,7 +5017,7 @@
         <v>45803</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>22</v>
@@ -5055,7 +5025,7 @@
     </row>
     <row r="11" spans="1:17" ht="96" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>28</v>
@@ -5064,25 +5034,25 @@
         <v>45798</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>246</v>
+        <v>254</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -5090,8 +5060,8 @@
       <c r="L11" s="9">
         <v>45798</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>323</v>
+      <c r="M11" s="44" t="s">
+        <v>326</v>
       </c>
       <c r="N11" s="10">
         <v>45798</v>
@@ -5100,26 +5070,18 @@
         <v>45798</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="M10:M11">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>"m2&gt;60"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>"m2&gt;60"</formula>
     </cfRule>
   </conditionalFormatting>
